--- a/survey/Auswertung.xlsx
+++ b/survey/Auswertung.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Dropbox\Studium\DA\survey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DA0F3-7171-4EC1-B5BC-80BB54A0C9DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="20010" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="214" windowWidth="20014" windowHeight="8057" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Antworten" sheetId="6" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="Auswertung Hauptmerkmale" sheetId="8" r:id="rId3"/>
     <sheet name="Einzelauswertung" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>I</t>
   </si>
@@ -198,11 +211,29 @@
   <si>
     <t>tmaruscaa@gmail.com</t>
   </si>
+  <si>
+    <t>andreas.a.falkner@siemens.com</t>
+  </si>
+  <si>
+    <t>max.landauer@live.at</t>
+  </si>
+  <si>
+    <t>julian.lehner@gmail.com</t>
+  </si>
+  <si>
+    <t>claudia.stetter@gmx.at</t>
+  </si>
+  <si>
+    <t>gertrude.jakob@gmail.com</t>
+  </si>
+  <si>
+    <t>t.zehet@gmx.at</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -282,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -306,82 +337,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -418,12 +385,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -465,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +468,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,20 +712,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:R21"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="255.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="224.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -765,7 +769,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>43308.501782407409</v>
       </c>
@@ -809,7 +813,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43308.513738425929</v>
       </c>
@@ -853,7 +857,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43308.518923611111</v>
       </c>
@@ -897,7 +901,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43308.521284722221</v>
       </c>
@@ -941,7 +945,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43308.522997685184</v>
       </c>
@@ -985,7 +989,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43308.523460648146</v>
       </c>
@@ -1029,7 +1033,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43308.525902777779</v>
       </c>
@@ -1073,7 +1077,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43308.527546296296</v>
       </c>
@@ -1117,7 +1121,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>43308.529374999998</v>
       </c>
@@ -1161,7 +1165,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>43308.531898148147</v>
       </c>
@@ -1205,7 +1209,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43308.533356481479</v>
       </c>
@@ -1249,7 +1253,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>43308.540231481478</v>
       </c>
@@ -1293,7 +1297,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>43308.548194444447</v>
       </c>
@@ -1337,7 +1341,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43308.550613425927</v>
       </c>
@@ -1381,7 +1385,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43308.556134259263</v>
       </c>
@@ -1425,7 +1429,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="50.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>43308.569039351853</v>
       </c>
@@ -1469,7 +1473,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="50.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>43308.606747685182</v>
       </c>
@@ -1513,7 +1517,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43308.607199074075</v>
       </c>
@@ -1557,7 +1561,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43308.651608796295</v>
       </c>
@@ -1601,7 +1605,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43308.653287037036</v>
       </c>
@@ -1644,6 +1648,270 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>43308.724189814813</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="14">
+        <v>2</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="14">
+        <v>2</v>
+      </c>
+      <c r="J22" s="14">
+        <v>4</v>
+      </c>
+      <c r="K22" s="14">
+        <v>4</v>
+      </c>
+      <c r="L22" s="14">
+        <v>4</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" ht="111.9" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>43308.862199074072</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3</v>
+      </c>
+      <c r="E23" s="14">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="14">
+        <v>3</v>
+      </c>
+      <c r="J23" s="14">
+        <v>4</v>
+      </c>
+      <c r="K23" s="14">
+        <v>2</v>
+      </c>
+      <c r="L23" s="14">
+        <v>2</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>43308.961828703701</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="J24" s="14">
+        <v>4</v>
+      </c>
+      <c r="K24" s="14">
+        <v>4</v>
+      </c>
+      <c r="L24" s="14">
+        <v>4</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" ht="49.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>43309.453576388885</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="14">
+        <v>2</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="14">
+        <v>2</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4</v>
+      </c>
+      <c r="K25" s="14">
+        <v>3</v>
+      </c>
+      <c r="L25" s="14">
+        <v>3</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:18" ht="111.9" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
+        <v>43309.78837962963</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="14">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="14">
+        <v>2</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="14">
+        <v>1</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4</v>
+      </c>
+      <c r="K26" s="14">
+        <v>4</v>
+      </c>
+      <c r="L26" s="14">
+        <v>4</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
+        <v>43310.899606481478</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="14">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="14">
+        <v>2</v>
+      </c>
+      <c r="J27" s="14">
+        <v>3</v>
+      </c>
+      <c r="K27" s="14">
+        <v>4</v>
+      </c>
+      <c r="L27" s="14">
+        <v>3</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,27 +1920,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3046875" customWidth="1"/>
+    <col min="3" max="3" width="9.3828125" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="2.3046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Antworten!A1</f>
         <v>Zeitstempel</v>
@@ -1752,7 +2020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>Antworten!A2</f>
         <v>43308.501782407409</v>
@@ -1846,7 +2114,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f>Antworten!A3</f>
         <v>43308.513738425929</v>
@@ -1940,7 +2208,7 @@
         <v>Hedonist</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f>Antworten!A4</f>
         <v>43308.518923611111</v>
@@ -2034,7 +2302,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>Antworten!A5</f>
         <v>43308.521284722221</v>
@@ -2128,7 +2396,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>Antworten!A6</f>
         <v>43308.522997685184</v>
@@ -2222,7 +2490,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>Antworten!A7</f>
         <v>43308.523460648146</v>
@@ -2316,7 +2584,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>Antworten!A8</f>
         <v>43308.525902777779</v>
@@ -2410,7 +2678,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f>Antworten!A9</f>
         <v>43308.527546296296</v>
@@ -2504,7 +2772,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>Antworten!A10</f>
         <v>43308.529374999998</v>
@@ -2598,7 +2866,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f>Antworten!A11</f>
         <v>43308.531898148147</v>
@@ -2692,7 +2960,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>Antworten!A12</f>
         <v>43308.533356481479</v>
@@ -2786,7 +3054,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>Antworten!A13</f>
         <v>43308.540231481478</v>
@@ -2880,7 +3148,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>Antworten!A14</f>
         <v>43308.548194444447</v>
@@ -2974,7 +3242,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f>Antworten!A15</f>
         <v>43308.550613425927</v>
@@ -3068,7 +3336,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>Antworten!A16</f>
         <v>43308.556134259263</v>
@@ -3162,7 +3430,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f>Antworten!A17</f>
         <v>43308.569039351853</v>
@@ -3256,7 +3524,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>Antworten!A18</f>
         <v>43308.606747685182</v>
@@ -3350,7 +3618,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f>Antworten!A19</f>
         <v>43308.607199074075</v>
@@ -3444,7 +3712,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f>Antworten!A20</f>
         <v>43308.651608796295</v>
@@ -3538,7 +3806,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f>Antworten!A21</f>
         <v>43308.653287037036</v>
@@ -3632,39 +3900,604 @@
         <v>Professional</v>
       </c>
     </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <f>Antworten!A22</f>
+        <v>43308.724189814813</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <f>Antworten!B22</f>
+        <v>andreas.a.falkner@siemens.com</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(Antworten!C22=1, "P", IF(Antworten!C22=2, "I", IF(Antworten!C22=3, "O", IF(Antworten!C22=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(Antworten!D22=1, "P", IF(Antworten!D22=2, "I", IF(Antworten!D22=3, "O", IF(Antworten!D22=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(Antworten!E22=1, "O", IF(Antworten!E22=2, "IP", IF(Antworten!E22=3, "IP", IF(Antworten!E22=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(Antworten!F22="Ja", "HP",IF(Antworten!F22="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(Antworten!G22="Ja", "HP",IF(Antworten!G22="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(Antworten!H22="Ich dusche nicht länger als notwendig","P",IF(Antworten!H22="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H22="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(Antworten!I22=1, "P", IF(Antworten!I22=2, "IO", IF(Antworten!I22=3, "IO", IF(Antworten!I22=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J22" t="str">
+        <f>IF(Antworten!J22=1, "H", IF(Antworten!J22=2, "H", IF(Antworten!J22=3, "HO", IF(Antworten!J22=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K22" t="str">
+        <f>IF(Antworten!K22=1, "HI", IF(Antworten!K22=2, "HI", IF(Antworten!K22=3, "HI", IF(Antworten!K22=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(Antworten!L22=1, "HP", IF(Antworten!L22=2, "HP", IF(Antworten!L22=3, "HP", IF(Antworten!L22=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" ref="M22:M27" si="22">CONCATENATE(C22,D22,E22,F22,G22,H22,I22,J22,K22,L22)</f>
+        <v>OIIPHPIOIHPOIOIPOIHPOIHPO</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N27" si="23">LEN(M22)-LEN(SUBSTITUTE(M22,"I",""))</f>
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O27" si="24">LEN(M22)-LEN(SUBSTITUTE(M22,"H",""))</f>
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22:P27" si="25">LEN(M22)-LEN(SUBSTITUTE(M22,"P",""))</f>
+        <v>6</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ref="Q22:Q27" si="26">LEN(M22)-LEN(SUBSTITUTE(M22,"O",""))</f>
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ref="R22:R27" si="27">SUM(N22:Q22)</f>
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ref="S22:S27" si="28">N22/R22</f>
+        <v>0.32</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ref="T22:T27" si="29">O22/R22</f>
+        <v>0.16</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:U27" si="30">P22/R22</f>
+        <v>0.24</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ref="V22:V27" si="31">Q22/R22</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" ref="W22:W27" si="32">LOOKUP(MAX(S22:V22),S22:V22,$S$1:$V$1)</f>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <f>Antworten!A23</f>
+        <v>43308.862199074072</v>
+      </c>
+      <c r="B23" s="11" t="str">
+        <f>Antworten!B23</f>
+        <v>max.landauer@live.at</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(Antworten!C23=1, "P", IF(Antworten!C23=2, "I", IF(Antworten!C23=3, "O", IF(Antworten!C23=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(Antworten!D23=1, "P", IF(Antworten!D23=2, "I", IF(Antworten!D23=3, "O", IF(Antworten!D23=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(Antworten!E23=1, "O", IF(Antworten!E23=2, "IP", IF(Antworten!E23=3, "IP", IF(Antworten!E23=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(Antworten!F23="Ja", "HP",IF(Antworten!F23="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(Antworten!G23="Ja", "HP",IF(Antworten!G23="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(Antworten!H23="Ich dusche nicht länger als notwendig","P",IF(Antworten!H23="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H23="Alles, je nach Situation","IHPO")))</f>
+        <v>IHO</v>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(Antworten!I23=1, "P", IF(Antworten!I23=2, "IO", IF(Antworten!I23=3, "IO", IF(Antworten!I23=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J23" t="str">
+        <f>IF(Antworten!J23=1, "H", IF(Antworten!J23=2, "H", IF(Antworten!J23=3, "HO", IF(Antworten!J23=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(Antworten!K23=1, "HI", IF(Antworten!K23=2, "HI", IF(Antworten!K23=3, "HI", IF(Antworten!K23=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(Antworten!L23=1, "HP", IF(Antworten!L23=2, "HP", IF(Antworten!L23=3, "HP", IF(Antworten!L23=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="22"/>
+        <v>OOIPHPHPIHOIOIPOHIHP</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="29"/>
+        <v>0.25</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="30"/>
+        <v>0.25</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="32"/>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <f>Antworten!A24</f>
+        <v>43308.961828703701</v>
+      </c>
+      <c r="B24" s="11" t="str">
+        <f>Antworten!B24</f>
+        <v>julian.lehner@gmail.com</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(Antworten!C24=1, "P", IF(Antworten!C24=2, "I", IF(Antworten!C24=3, "O", IF(Antworten!C24=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(Antworten!D24=1, "P", IF(Antworten!D24=2, "I", IF(Antworten!D24=3, "O", IF(Antworten!D24=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(Antworten!E24=1, "O", IF(Antworten!E24=2, "IP", IF(Antworten!E24=3, "IP", IF(Antworten!E24=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(Antworten!F24="Ja", "HP",IF(Antworten!F24="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(Antworten!G24="Ja", "HP",IF(Antworten!G24="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(Antworten!H24="Ich dusche nicht länger als notwendig","P",IF(Antworten!H24="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H24="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(Antworten!I24=1, "P", IF(Antworten!I24=2, "IO", IF(Antworten!I24=3, "IO", IF(Antworten!I24=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J24" t="str">
+        <f>IF(Antworten!J24=1, "H", IF(Antworten!J24=2, "H", IF(Antworten!J24=3, "HO", IF(Antworten!J24=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(Antworten!K24=1, "HI", IF(Antworten!K24=2, "HI", IF(Antworten!K24=3, "HI", IF(Antworten!K24=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(Antworten!L24=1, "HP", IF(Antworten!L24=2, "HP", IF(Antworten!L24=3, "HP", IF(Antworten!L24=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="22"/>
+        <v>PPIPHPHPIHPOPIPOIHPOIHPO</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="26"/>
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="28"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="29"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="30"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="31"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="32"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <f>Antworten!A25</f>
+        <v>43309.453576388885</v>
+      </c>
+      <c r="B25" s="11" t="str">
+        <f>Antworten!B25</f>
+        <v>claudia.stetter@gmx.at</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(Antworten!C25=1, "P", IF(Antworten!C25=2, "I", IF(Antworten!C25=3, "O", IF(Antworten!C25=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(Antworten!D25=1, "P", IF(Antworten!D25=2, "I", IF(Antworten!D25=3, "O", IF(Antworten!D25=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(Antworten!E25=1, "O", IF(Antworten!E25=2, "IP", IF(Antworten!E25=3, "IP", IF(Antworten!E25=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(Antworten!F25="Ja", "HP",IF(Antworten!F25="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(Antworten!G25="Ja", "HP",IF(Antworten!G25="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(Antworten!H25="Ich dusche nicht länger als notwendig","P",IF(Antworten!H25="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H25="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(Antworten!I25=1, "P", IF(Antworten!I25=2, "IO", IF(Antworten!I25=3, "IO", IF(Antworten!I25=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J25" t="str">
+        <f>IF(Antworten!J25=1, "H", IF(Antworten!J25=2, "H", IF(Antworten!J25=3, "HO", IF(Antworten!J25=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(Antworten!K25=1, "HI", IF(Antworten!K25=2, "HI", IF(Antworten!K25=3, "HI", IF(Antworten!K25=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(Antworten!L25=1, "HP", IF(Antworten!L25=2, "HP", IF(Antworten!L25=3, "HP", IF(Antworten!L25=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="22"/>
+        <v>OIIPIOIOPIOIPOHIHP</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="28"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="29"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="30"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="31"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="32"/>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <f>Antworten!A26</f>
+        <v>43309.78837962963</v>
+      </c>
+      <c r="B26" s="11" t="str">
+        <f>Antworten!B26</f>
+        <v>gertrude.jakob@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(Antworten!C26=1, "P", IF(Antworten!C26=2, "I", IF(Antworten!C26=3, "O", IF(Antworten!C26=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(Antworten!D26=1, "P", IF(Antworten!D26=2, "I", IF(Antworten!D26=3, "O", IF(Antworten!D26=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(Antworten!E26=1, "O", IF(Antworten!E26=2, "IP", IF(Antworten!E26=3, "IP", IF(Antworten!E26=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(Antworten!F26="Ja", "HP",IF(Antworten!F26="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(Antworten!G26="Ja", "HP",IF(Antworten!G26="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(Antworten!H26="Ich dusche nicht länger als notwendig","P",IF(Antworten!H26="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H26="Alles, je nach Situation","IHPO")))</f>
+        <v>IHO</v>
+      </c>
+      <c r="I26" t="str">
+        <f>IF(Antworten!I26=1, "P", IF(Antworten!I26=2, "IO", IF(Antworten!I26=3, "IO", IF(Antworten!I26=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J26" t="str">
+        <f>IF(Antworten!J26=1, "H", IF(Antworten!J26=2, "H", IF(Antworten!J26=3, "HO", IF(Antworten!J26=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K26" t="str">
+        <f>IF(Antworten!K26=1, "HI", IF(Antworten!K26=2, "HI", IF(Antworten!K26=3, "HI", IF(Antworten!K26=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L26" t="str">
+        <f>IF(Antworten!L26=1, "HP", IF(Antworten!L26=2, "HP", IF(Antworten!L26=3, "HP", IF(Antworten!L26=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="22"/>
+        <v>IIIPIOIOIHOPIPOIHPOIHPO</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="28"/>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="29"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="30"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="31"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="32"/>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <f>Antworten!A27</f>
+        <v>43310.899606481478</v>
+      </c>
+      <c r="B27" s="11" t="str">
+        <f>Antworten!B27</f>
+        <v>t.zehet@gmx.at</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(Antworten!C27=1, "P", IF(Antworten!C27=2, "I", IF(Antworten!C27=3, "O", IF(Antworten!C27=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(Antworten!D27=1, "P", IF(Antworten!D27=2, "I", IF(Antworten!D27=3, "O", IF(Antworten!D27=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(Antworten!E27=1, "O", IF(Antworten!E27=2, "IP", IF(Antworten!E27=3, "IP", IF(Antworten!E27=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(Antworten!F27="Ja", "HP",IF(Antworten!F27="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(Antworten!G27="Ja", "HP",IF(Antworten!G27="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(Antworten!H27="Ich dusche nicht länger als notwendig","P",IF(Antworten!H27="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H27="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(Antworten!I27=1, "P", IF(Antworten!I27=2, "IO", IF(Antworten!I27=3, "IO", IF(Antworten!I27=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J27" t="str">
+        <f>IF(Antworten!J27=1, "H", IF(Antworten!J27=2, "H", IF(Antworten!J27=3, "HO", IF(Antworten!J27=4, "IPO"))))</f>
+        <v>HO</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(Antworten!K27=1, "HI", IF(Antworten!K27=2, "HI", IF(Antworten!K27=3, "HI", IF(Antworten!K27=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L27" t="str">
+        <f>IF(Antworten!L27=1, "HP", IF(Antworten!L27=2, "HP", IF(Antworten!L27=3, "HP", IF(Antworten!L27=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ref="M27" si="33">CONCATENATE(C27,D27,E27,F27,G27,H27,I27,J27,K27,L27)</f>
+        <v>IIIPIOIOIHPOIOHOIHPOHP</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27" si="34">LEN(M27)-LEN(SUBSTITUTE(M27,"I",""))</f>
+        <v>8</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27" si="35">LEN(M27)-LEN(SUBSTITUTE(M27,"H",""))</f>
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <f t="shared" ref="P27" si="36">LEN(M27)-LEN(SUBSTITUTE(M27,"P",""))</f>
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" ref="Q27" si="37">LEN(M27)-LEN(SUBSTITUTE(M27,"O",""))</f>
+        <v>6</v>
+      </c>
+      <c r="R27">
+        <f t="shared" ref="R27" si="38">SUM(N27:Q27)</f>
+        <v>22</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ref="S27" si="39">N27/R27</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="T27">
+        <f t="shared" ref="T27" si="40">O27/R27</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="U27">
+        <f t="shared" ref="U27" si="41">P27/R27</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ref="V27" si="42">Q27/R27</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" ref="W27" si="43">LOOKUP(MAX(S27:V27),S27:V27,$S$1:$V$1)</f>
+        <v>Optimierer</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:V21">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="S2:V27">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.3046875" customWidth="1"/>
+    <col min="3" max="3" width="9.3828125" customWidth="1"/>
+    <col min="10" max="10" width="16.15234375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.3828125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Antworten!A1</f>
         <v>Zeitstempel</v>
@@ -3732,7 +4565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>Antworten!A2</f>
         <v>43308.501782407409</v>
@@ -3814,7 +4647,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f>Antworten!A3</f>
         <v>43308.513738425929</v>
@@ -3896,7 +4729,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f>Antworten!A4</f>
         <v>43308.518923611111</v>
@@ -3978,7 +4811,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>Antworten!A5</f>
         <v>43308.521284722221</v>
@@ -4060,7 +4893,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>Antworten!A6</f>
         <v>43308.522997685184</v>
@@ -4142,7 +4975,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>Antworten!A7</f>
         <v>43308.523460648146</v>
@@ -4224,7 +5057,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>Antworten!A8</f>
         <v>43308.525902777779</v>
@@ -4306,7 +5139,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f>Antworten!A9</f>
         <v>43308.527546296296</v>
@@ -4388,7 +5221,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>Antworten!A10</f>
         <v>43308.529374999998</v>
@@ -4470,7 +5303,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f>Antworten!A11</f>
         <v>43308.531898148147</v>
@@ -4552,7 +5385,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>Antworten!A12</f>
         <v>43308.533356481479</v>
@@ -4634,7 +5467,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>Antworten!A13</f>
         <v>43308.540231481478</v>
@@ -4716,7 +5549,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>Antworten!A14</f>
         <v>43308.548194444447</v>
@@ -4798,7 +5631,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f>Antworten!A15</f>
         <v>43308.550613425927</v>
@@ -4880,7 +5713,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>Antworten!A16</f>
         <v>43308.556134259263</v>
@@ -4962,7 +5795,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f>Antworten!A17</f>
         <v>43308.569039351853</v>
@@ -5044,7 +5877,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>Antworten!A18</f>
         <v>43308.606747685182</v>
@@ -5126,7 +5959,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f>Antworten!A19</f>
         <v>43308.607199074075</v>
@@ -5208,7 +6041,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f>Antworten!A20</f>
         <v>43308.651608796295</v>
@@ -5290,7 +6123,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f>Antworten!A21</f>
         <v>43308.653287037036</v>
@@ -5372,9 +6205,501 @@
         <v>Professional</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <f>Antworten!A22</f>
+        <v>43308.724189814813</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <f>Antworten!B22</f>
+        <v>andreas.a.falkner@siemens.com</v>
+      </c>
+      <c r="C22" t="str">
+        <f>IF(Antworten!C22=1, "P", IF(Antworten!C22=2, "I", IF(Antworten!C22=3, "O", IF(Antworten!C22=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D22" t="str">
+        <f>IF(Antworten!D22=1, "P", IF(Antworten!D22=2, "I", IF(Antworten!D22=3, "O", IF(Antworten!D22=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(Antworten!E22=1, "O", IF(Antworten!E22=2, "IP", IF(Antworten!E22=3, "IP", IF(Antworten!E22=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(Antworten!F22="Ja", "HP",IF(Antworten!F22="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(Antworten!G22="Ja", "HP",IF(Antworten!G22="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H22" t="str">
+        <f>IF(Antworten!H22="Ich dusche nicht länger als notwendig","P",IF(Antworten!H22="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H22="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I22" t="str">
+        <f>IF(Antworten!I22=1, "P", IF(Antworten!I22=2, "IO", IF(Antworten!I22=3, "IO", IF(Antworten!I22=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22:J26" si="44">CONCATENATE(C22,D22,E22,F22,G22,H22,I22)</f>
+        <v>OIIPHPIOIHPOIO</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K26" si="45">LEN(J22)-LEN(SUBSTITUTE(J22,"I",""))</f>
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L26" si="46">LEN(J22)-LEN(SUBSTITUTE(J22,"H",""))</f>
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M26" si="47">LEN(J22)-LEN(SUBSTITUTE(J22,"P",""))</f>
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N26" si="48">LEN(J22)-LEN(SUBSTITUTE(J22,"O",""))</f>
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O26" si="49">SUM(K22:N22)</f>
+        <v>14</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" ref="P22:P26" si="50">K22/O22</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" ref="Q22:Q26" si="51">L22/O22</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" ref="R22:R26" si="52">M22/O22</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" ref="S22:S26" si="53">N22/O22</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" ref="T22:T26" si="54">LOOKUP(MAX(P22:S22),P22:S22,$P$1:$S$1)</f>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <f>Antworten!A23</f>
+        <v>43308.862199074072</v>
+      </c>
+      <c r="B23" s="11" t="str">
+        <f>Antworten!B23</f>
+        <v>max.landauer@live.at</v>
+      </c>
+      <c r="C23" t="str">
+        <f>IF(Antworten!C23=1, "P", IF(Antworten!C23=2, "I", IF(Antworten!C23=3, "O", IF(Antworten!C23=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D23" t="str">
+        <f>IF(Antworten!D23=1, "P", IF(Antworten!D23=2, "I", IF(Antworten!D23=3, "O", IF(Antworten!D23=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(Antworten!E23=1, "O", IF(Antworten!E23=2, "IP", IF(Antworten!E23=3, "IP", IF(Antworten!E23=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(Antworten!F23="Ja", "HP",IF(Antworten!F23="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G23" t="str">
+        <f>IF(Antworten!G23="Ja", "HP",IF(Antworten!G23="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H23" t="str">
+        <f>IF(Antworten!H23="Ich dusche nicht länger als notwendig","P",IF(Antworten!H23="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H23="Alles, je nach Situation","IHPO")))</f>
+        <v>IHO</v>
+      </c>
+      <c r="I23" t="str">
+        <f>IF(Antworten!I23=1, "P", IF(Antworten!I23=2, "IO", IF(Antworten!I23=3, "IO", IF(Antworten!I23=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="44"/>
+        <v>OOIPHPHPIHOIO</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="49"/>
+        <v>13</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="50"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="51"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="52"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="53"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="54"/>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <f>Antworten!A24</f>
+        <v>43308.961828703701</v>
+      </c>
+      <c r="B24" s="11" t="str">
+        <f>Antworten!B24</f>
+        <v>julian.lehner@gmail.com</v>
+      </c>
+      <c r="C24" t="str">
+        <f>IF(Antworten!C24=1, "P", IF(Antworten!C24=2, "I", IF(Antworten!C24=3, "O", IF(Antworten!C24=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D24" t="str">
+        <f>IF(Antworten!D24=1, "P", IF(Antworten!D24=2, "I", IF(Antworten!D24=3, "O", IF(Antworten!D24=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(Antworten!E24=1, "O", IF(Antworten!E24=2, "IP", IF(Antworten!E24=3, "IP", IF(Antworten!E24=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(Antworten!F24="Ja", "HP",IF(Antworten!F24="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(Antworten!G24="Ja", "HP",IF(Antworten!G24="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H24" t="str">
+        <f>IF(Antworten!H24="Ich dusche nicht länger als notwendig","P",IF(Antworten!H24="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H24="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I24" t="str">
+        <f>IF(Antworten!I24=1, "P", IF(Antworten!I24=2, "IO", IF(Antworten!I24=3, "IO", IF(Antworten!I24=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="44"/>
+        <v>PPIPHPHPIHPOP</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="49"/>
+        <v>13</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="50"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="51"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R24" s="9">
+        <f t="shared" si="52"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="S24" s="9">
+        <f t="shared" si="53"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="54"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <f>Antworten!A25</f>
+        <v>43309.453576388885</v>
+      </c>
+      <c r="B25" s="11" t="str">
+        <f>Antworten!B25</f>
+        <v>claudia.stetter@gmx.at</v>
+      </c>
+      <c r="C25" t="str">
+        <f>IF(Antworten!C25=1, "P", IF(Antworten!C25=2, "I", IF(Antworten!C25=3, "O", IF(Antworten!C25=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D25" t="str">
+        <f>IF(Antworten!D25=1, "P", IF(Antworten!D25=2, "I", IF(Antworten!D25=3, "O", IF(Antworten!D25=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(Antworten!E25=1, "O", IF(Antworten!E25=2, "IP", IF(Antworten!E25=3, "IP", IF(Antworten!E25=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(Antworten!F25="Ja", "HP",IF(Antworten!F25="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(Antworten!G25="Ja", "HP",IF(Antworten!G25="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H25" t="str">
+        <f>IF(Antworten!H25="Ich dusche nicht länger als notwendig","P",IF(Antworten!H25="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H25="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I25" t="str">
+        <f>IF(Antworten!I25=1, "P", IF(Antworten!I25=2, "IO", IF(Antworten!I25=3, "IO", IF(Antworten!I25=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="44"/>
+        <v>OIIPIOIOPIO</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="49"/>
+        <v>11</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="50"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="52"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="53"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="54"/>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <f>Antworten!A26</f>
+        <v>43309.78837962963</v>
+      </c>
+      <c r="B26" s="11" t="str">
+        <f>Antworten!B26</f>
+        <v>gertrude.jakob@gmail.com</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(Antworten!C26=1, "P", IF(Antworten!C26=2, "I", IF(Antworten!C26=3, "O", IF(Antworten!C26=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D26" t="str">
+        <f>IF(Antworten!D26=1, "P", IF(Antworten!D26=2, "I", IF(Antworten!D26=3, "O", IF(Antworten!D26=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(Antworten!E26=1, "O", IF(Antworten!E26=2, "IP", IF(Antworten!E26=3, "IP", IF(Antworten!E26=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(Antworten!F26="Ja", "HP",IF(Antworten!F26="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(Antworten!G26="Ja", "HP",IF(Antworten!G26="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H26" t="str">
+        <f>IF(Antworten!H26="Ich dusche nicht länger als notwendig","P",IF(Antworten!H26="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H26="Alles, je nach Situation","IHPO")))</f>
+        <v>IHO</v>
+      </c>
+      <c r="I26" t="str">
+        <f>IF(Antworten!I26=1, "P", IF(Antworten!I26=2, "IO", IF(Antworten!I26=3, "IO", IF(Antworten!I26=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="44"/>
+        <v>IIIPIOIOIHOP</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="47"/>
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="48"/>
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="49"/>
+        <v>12</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="51"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" si="52"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="53"/>
+        <v>0.25</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="54"/>
+        <v>Optimierer</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <f>Antworten!A27</f>
+        <v>43310.899606481478</v>
+      </c>
+      <c r="B27" s="11" t="str">
+        <f>Antworten!B27</f>
+        <v>t.zehet@gmx.at</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(Antworten!C27=1, "P", IF(Antworten!C27=2, "I", IF(Antworten!C27=3, "O", IF(Antworten!C27=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D27" t="str">
+        <f>IF(Antworten!D27=1, "P", IF(Antworten!D27=2, "I", IF(Antworten!D27=3, "O", IF(Antworten!D27=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(Antworten!E27=1, "O", IF(Antworten!E27=2, "IP", IF(Antworten!E27=3, "IP", IF(Antworten!E27=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(Antworten!F27="Ja", "HP",IF(Antworten!F27="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(Antworten!G27="Ja", "HP",IF(Antworten!G27="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H27" t="str">
+        <f>IF(Antworten!H27="Ich dusche nicht länger als notwendig","P",IF(Antworten!H27="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H27="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I27" t="str">
+        <f>IF(Antworten!I27=1, "P", IF(Antworten!I27=2, "IO", IF(Antworten!I27=3, "IO", IF(Antworten!I27=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27" si="55">CONCATENATE(C27,D27,E27,F27,G27,H27,I27)</f>
+        <v>IIIPIOIOIHPOIO</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27" si="56">LEN(J27)-LEN(SUBSTITUTE(J27,"I",""))</f>
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27" si="57">LEN(J27)-LEN(SUBSTITUTE(J27,"H",""))</f>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="58">LEN(J27)-LEN(SUBSTITUTE(J27,"P",""))</f>
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27" si="59">LEN(J27)-LEN(SUBSTITUTE(J27,"O",""))</f>
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" ref="O27" si="60">SUM(K27:N27)</f>
+        <v>14</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" ref="P27" si="61">K27/O27</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" ref="Q27" si="62">L27/O27</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" ref="R27" si="63">M27/O27</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="S27" s="9">
+        <f t="shared" ref="S27" si="64">N27/O27</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" ref="T27" si="65">LOOKUP(MAX(P27:S27),P27:S27,$P$1:$S$1)</f>
+        <v>Optimierer</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:S21">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="P2:S27">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5383,24 +6708,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.15234375" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -5461,8 +6786,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>43305.646828703706</v>
       </c>
@@ -5524,7 +6849,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -5593,7 +6918,7 @@
         <v>HOP</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5602,7 +6927,7 @@
         <v>OHPIPIHHPHPHPIHPOIHPOIHPOIOIPOHIIHO</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
@@ -5618,7 +6943,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
@@ -5641,7 +6966,7 @@
         <v>Hedonist</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -5657,7 +6982,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
@@ -5673,7 +6998,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E23" s="7">
         <f>SUM(E19:E22)</f>
         <v>35</v>

--- a/survey/Auswertung.xlsx
+++ b/survey/Auswertung.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Dropbox\Studium\DA\survey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9DA0F3-7171-4EC1-B5BC-80BB54A0C9DD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="214" windowWidth="20014" windowHeight="8057" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="20010" windowHeight="8055" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Antworten" sheetId="6" r:id="rId1"/>
     <sheet name="Auswertung" sheetId="7" r:id="rId2"/>
     <sheet name="Auswertung Hauptmerkmale" sheetId="8" r:id="rId3"/>
     <sheet name="Einzelauswertung" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
   <si>
     <t>I</t>
   </si>
@@ -228,12 +223,198 @@
   </si>
   <si>
     <t>t.zehet@gmx.at</t>
+  </si>
+  <si>
+    <t>antonino.cassarino@siemens.com</t>
+  </si>
+  <si>
+    <t>richard.taupe@siemens.com</t>
+  </si>
+  <si>
+    <t>josiane.parreira@siemens.com</t>
+  </si>
+  <si>
+    <t>deinhofer.katja@gmx.at</t>
+  </si>
+  <si>
+    <t>Schreiner, Herwig (CT RDA BAM CON-AT) &lt;herwig.schreiner@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bischof, Stefan (RC-AT TP) &lt;bischof.stefan@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cassarino, Antonino (CT RDA BAM CON-AT) &lt;antonino.cassarino@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dhungana, Deepak (CT RDA BAM CON-AT) &lt;deepak.dhungana@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ehlmaier, Max Paul (RC-AT TP SCCR BP1) &lt;max.ehlmaier@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Engelbrecht, Gerhard (CT RDA BAM CON-AT) &lt;gerhard.engelbrecht@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falkner, Andreas (CT RDA BAM CON-AT) &lt;andreas.a.falkner@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haselboeck, Alois (CT RDA BAM CON-AT) &lt;alois.haselboeck@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Havur, Giray (CT RDA BAM CON-AT) &lt;giray.havur@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kogler, Philipp Guenther (CT RDA BAM CON-AT) &lt;philipp.kogler@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krames, Gerfried (CT RDA BAM CON-AT) &lt;gerfried.krames@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lang, Barbara (RC-AT TP SCCR BP1) &lt;barbara.lang@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maruscak, Tomislav (RC-AT TP) &lt;tomislav.maruscak@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nagelholz, Markus (CT RDA BAM CON-AT) &lt;markus.nagelholz@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohshita, Birgit (CT RDA BAM CON-AT) &lt;birgit.ohshita@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pettersson, Jonas G F (CT RDA BAM CON-AT) &lt;jonas.pettersson@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rogenhofer, Sophie (CT RDA BAM CON-AT) &lt;sophie.rogenhofer@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schenner, Gottfried (CT RDA BAM CON-AT) &lt;gottfried.schenner@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schoerghuber, Alexander (CT RDA BAM CON-AT) &lt;alexander.schoerghuber@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sestak, Florian (CT RDA BAM CON-AT) &lt;florian.sestak@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sperl, Simon (CT RDA BAM CON-AT) &lt;simon.sperl@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steyskal, Simon (CT RDA BAM CON-AT) &lt;simon.steyskal@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taupe, Richard (RC-AT TP) &lt;richard.taupe@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valerio, Danilo (CT RDA BAM CON-AT) &lt;danilo.valerio@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wurl, Alexander (CT RDA BAM CON-AT) &lt;alexander.wurl@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Xavier Parreira, Josiane (CT RDA BAM CON-AT) &lt;josiane.parreira@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Altmann, Josef (MO RC-AT MM-MMF PEC EP 5) &lt;josef.altmann@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bui, Trung-Kien (MO RC-AT MM-MMF PEC EP 5) &lt;trung-kien.bui@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kalchmayr, Maria (MO RC-AT MM-MMF PEC EP 5) &lt;maria.kalchmayr@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kis, Csaba (MO RC-AT MM-MMF PEC EP 5) &lt;csaba.kis@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kollruss, Robert (MO RC-AT MM-MMF PEC EP 5) &lt;robert.kollruss@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lingner, Sigvard (MO RC-AT MM-MMF PEC EP 5) &lt;sigvard.lingner@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maier, Brigitte (MO RC-AT MM-MMF PEC EP 5) &lt;brigitte.maier@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Szolarz, Andreas (MO RC-AT MM-MMF PEC EP 5) &lt;andreas.szolarz@siemens.com&gt;</t>
+  </si>
+  <si>
+    <t>Julian Lehner</t>
+  </si>
+  <si>
+    <t>Claudia Stetter</t>
+  </si>
+  <si>
+    <t>Julia Filler</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Obi</t>
+  </si>
+  <si>
+    <t>Lisi</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Papa</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Theri</t>
+  </si>
+  <si>
+    <t>Katja</t>
+  </si>
+  <si>
+    <t>Wolfgang</t>
+  </si>
+  <si>
+    <t>Andi</t>
+  </si>
+  <si>
+    <t>Helmut</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Markus Perlinger</t>
+  </si>
+  <si>
+    <t>Natascha</t>
+  </si>
+  <si>
+    <t>Peter Benesch</t>
+  </si>
+  <si>
+    <t>Cordi</t>
+  </si>
+  <si>
+    <t>gerhard.engelbrecht@siemens.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -313,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -343,22 +524,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -393,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,26 +640,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,23 +675,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -712,20 +850,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:R27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.69140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="224.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="243" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -769,7 +907,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43308.501782407409</v>
       </c>
@@ -777,7 +915,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -813,7 +951,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43308.513738425929</v>
       </c>
@@ -857,7 +995,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>43308.518923611111</v>
       </c>
@@ -901,7 +1039,7 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>43308.521284722221</v>
       </c>
@@ -945,7 +1083,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>43308.522997685184</v>
       </c>
@@ -989,7 +1127,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>43308.523460648146</v>
       </c>
@@ -1033,7 +1171,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>43308.525902777779</v>
       </c>
@@ -1077,7 +1215,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>43308.527546296296</v>
       </c>
@@ -1121,7 +1259,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43308.529374999998</v>
       </c>
@@ -1165,7 +1303,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43308.531898148147</v>
       </c>
@@ -1209,7 +1347,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43308.533356481479</v>
       </c>
@@ -1253,7 +1391,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43308.540231481478</v>
       </c>
@@ -1297,7 +1435,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43308.548194444447</v>
       </c>
@@ -1341,7 +1479,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>43308.550613425927</v>
       </c>
@@ -1385,7 +1523,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>43308.556134259263</v>
       </c>
@@ -1429,7 +1567,7 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" ht="50.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43308.569039351853</v>
       </c>
@@ -1473,7 +1611,7 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" ht="50.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43308.606747685182</v>
       </c>
@@ -1517,7 +1655,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43308.607199074075</v>
       </c>
@@ -1561,7 +1699,7 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>43308.651608796295</v>
       </c>
@@ -1605,7 +1743,7 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" ht="37.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="37.700000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>43308.653287037036</v>
       </c>
@@ -1649,7 +1787,7 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="37.35" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>43308.724189814813</v>
       </c>
@@ -1693,7 +1831,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
     </row>
-    <row r="23" spans="1:18" ht="111.9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>43308.862199074072</v>
       </c>
@@ -1737,7 +1875,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
     </row>
-    <row r="24" spans="1:18" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="37.35" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>43308.961828703701</v>
       </c>
@@ -1781,7 +1919,7 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
     </row>
-    <row r="25" spans="1:18" ht="49.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>43309.453576388885</v>
       </c>
@@ -1825,7 +1963,7 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:18" ht="111.9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>43309.78837962963</v>
       </c>
@@ -1869,7 +2007,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="1:18" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>43310.899606481478</v>
       </c>
@@ -1912,6 +2050,226 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43311.39135416667</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>4</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43311.408310185187</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
+        <v>3</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43311.520821759259</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4</v>
+      </c>
+      <c r="K30" s="3">
+        <v>3</v>
+      </c>
+      <c r="L30" s="3">
+        <v>4</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43311.557800925926</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="3">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43311.601990740739</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>4</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1920,24 +2278,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.3046875" customWidth="1"/>
-    <col min="3" max="3" width="9.3828125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="2.3046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2020,7 +2379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>Antworten!A2</f>
         <v>43308.501782407409</v>
@@ -2031,7 +2390,7 @@
       </c>
       <c r="C2" t="str">
         <f>IF(Antworten!C2=1, "P", IF(Antworten!C2=2, "I", IF(Antworten!C2=3, "O", IF(Antworten!C2=4, "H"))))</f>
-        <v>O</v>
+        <v>H</v>
       </c>
       <c r="D2" t="str">
         <f>IF(Antworten!D2=1, "P", IF(Antworten!D2=2, "I", IF(Antworten!D2=3, "O", IF(Antworten!D2=4, "H"))))</f>
@@ -2071,7 +2430,7 @@
       </c>
       <c r="M2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2,I2,J2,K2,L2)</f>
-        <v>OPIPHPHPIHOIOIPOHIHP</v>
+        <v>HPIPHPHPIHOIOIPOHIHP</v>
       </c>
       <c r="N2">
         <f>LEN(M2)-LEN(SUBSTITUTE(M2,"I",""))</f>
@@ -2079,7 +2438,7 @@
       </c>
       <c r="O2">
         <f>LEN(M2)-LEN(SUBSTITUTE(M2,"H",""))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2">
         <f>LEN(M2)-LEN(SUBSTITUTE(M2,"P",""))</f>
@@ -2087,7 +2446,7 @@
       </c>
       <c r="Q2">
         <f>LEN(M2)-LEN(SUBSTITUTE(M2,"O",""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <f>SUM(N2:Q2)</f>
@@ -2099,7 +2458,7 @@
       </c>
       <c r="T2">
         <f>O2/R2</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="U2">
         <f>P2/R2</f>
@@ -2107,14 +2466,14 @@
       </c>
       <c r="V2">
         <f>Q2/R2</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="W2" t="str">
-        <f>LOOKUP(MAX(S2:V2),S2:V2,$S$1:$V$1)</f>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <f>INDEX($S$1:$V$1, MATCH(MAX(S2:V2),S2:V2,0))</f>
+        <v>Hedonist</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f>Antworten!A3</f>
         <v>43308.513738425929</v>
@@ -2204,11 +2563,11 @@
         <v>0.26315789473684209</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W19" si="10">LOOKUP(MAX(S3:V3),S3:V3,$S$1:$V$1)</f>
+        <f t="shared" ref="W3:W32" si="10">INDEX($S$1:$V$1, MATCH(MAX(S3:V3),S3:V3,0))</f>
         <v>Hedonist</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f>Antworten!A4</f>
         <v>43308.518923611111</v>
@@ -2299,10 +2658,10 @@
       </c>
       <c r="W4" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>Antworten!A5</f>
         <v>43308.521284722221</v>
@@ -2393,10 +2752,10 @@
       </c>
       <c r="W5" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>Antworten!A6</f>
         <v>43308.522997685184</v>
@@ -2487,10 +2846,10 @@
       </c>
       <c r="W6" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>Antworten!A7</f>
         <v>43308.523460648146</v>
@@ -2581,10 +2940,10 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>Antworten!A8</f>
         <v>43308.525902777779</v>
@@ -2678,7 +3037,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f>Antworten!A9</f>
         <v>43308.527546296296</v>
@@ -2772,7 +3131,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>Antworten!A10</f>
         <v>43308.529374999998</v>
@@ -2866,7 +3225,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f>Antworten!A11</f>
         <v>43308.531898148147</v>
@@ -2960,7 +3319,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>Antworten!A12</f>
         <v>43308.533356481479</v>
@@ -3051,10 +3410,10 @@
       </c>
       <c r="W12" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>Antworten!A13</f>
         <v>43308.540231481478</v>
@@ -3145,10 +3504,10 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>Antworten!A14</f>
         <v>43308.548194444447</v>
@@ -3242,7 +3601,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f>Antworten!A15</f>
         <v>43308.550613425927</v>
@@ -3333,10 +3692,10 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>Antworten!A16</f>
         <v>43308.556134259263</v>
@@ -3427,10 +3786,10 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f>Antworten!A17</f>
         <v>43308.569039351853</v>
@@ -3524,7 +3883,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>Antworten!A18</f>
         <v>43308.606747685182</v>
@@ -3615,10 +3974,10 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f>Antworten!A19</f>
         <v>43308.607199074075</v>
@@ -3712,7 +4071,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f>Antworten!A20</f>
         <v>43308.651608796295</v>
@@ -3802,11 +4161,11 @@
         <v>0.25</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" ref="W20:W21" si="21">LOOKUP(MAX(S20:V20),S20:V20,$S$1:$V$1)</f>
+        <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f>Antworten!A21</f>
         <v>43308.653287037036</v>
@@ -3896,11 +4255,11 @@
         <v>0.21739130434782608</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f>Antworten!A22</f>
         <v>43308.724189814813</v>
@@ -3950,51 +4309,51 @@
         <v>IHPO</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:M27" si="22">CONCATENATE(C22,D22,E22,F22,G22,H22,I22,J22,K22,L22)</f>
+        <f t="shared" ref="M22:M26" si="21">CONCATENATE(C22,D22,E22,F22,G22,H22,I22,J22,K22,L22)</f>
         <v>OIIPHPIOIHPOIOIPOIHPOIHPO</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N27" si="23">LEN(M22)-LEN(SUBSTITUTE(M22,"I",""))</f>
+        <f t="shared" ref="N22:N26" si="22">LEN(M22)-LEN(SUBSTITUTE(M22,"I",""))</f>
         <v>8</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O27" si="24">LEN(M22)-LEN(SUBSTITUTE(M22,"H",""))</f>
+        <f t="shared" ref="O22:O26" si="23">LEN(M22)-LEN(SUBSTITUTE(M22,"H",""))</f>
         <v>4</v>
       </c>
       <c r="P22">
-        <f t="shared" ref="P22:P27" si="25">LEN(M22)-LEN(SUBSTITUTE(M22,"P",""))</f>
+        <f t="shared" ref="P22:P26" si="24">LEN(M22)-LEN(SUBSTITUTE(M22,"P",""))</f>
         <v>6</v>
       </c>
       <c r="Q22">
-        <f t="shared" ref="Q22:Q27" si="26">LEN(M22)-LEN(SUBSTITUTE(M22,"O",""))</f>
+        <f t="shared" ref="Q22:Q26" si="25">LEN(M22)-LEN(SUBSTITUTE(M22,"O",""))</f>
         <v>7</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:R27" si="27">SUM(N22:Q22)</f>
+        <f t="shared" ref="R22:R26" si="26">SUM(N22:Q22)</f>
         <v>25</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S22:S27" si="28">N22/R22</f>
+        <f t="shared" ref="S22:S26" si="27">N22/R22</f>
         <v>0.32</v>
       </c>
       <c r="T22">
-        <f t="shared" ref="T22:T27" si="29">O22/R22</f>
+        <f t="shared" ref="T22:T26" si="28">O22/R22</f>
         <v>0.16</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:U27" si="30">P22/R22</f>
+        <f t="shared" ref="U22:U26" si="29">P22/R22</f>
         <v>0.24</v>
       </c>
       <c r="V22">
-        <f t="shared" ref="V22:V27" si="31">Q22/R22</f>
+        <f t="shared" ref="V22:V26" si="30">Q22/R22</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" ref="W22:W27" si="32">LOOKUP(MAX(S22:V22),S22:V22,$S$1:$V$1)</f>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f>Antworten!A23</f>
         <v>43308.862199074072</v>
@@ -4044,51 +4403,51 @@
         <v>HP</v>
       </c>
       <c r="M23" t="str">
+        <f t="shared" si="21"/>
+        <v>OOIPHPHPIHOIOIPOHIHP</v>
+      </c>
+      <c r="N23">
         <f t="shared" si="22"/>
-        <v>OOIPHPHPIHOIOIPOHIHP</v>
-      </c>
-      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="24"/>
         <v>5</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="27"/>
-        <v>20</v>
-      </c>
-      <c r="S23">
+        <v>0.25</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="28"/>
         <v>0.25</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="29"/>
         <v>0.25</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <f t="shared" si="30"/>
         <v>0.25</v>
       </c>
-      <c r="V23">
-        <f t="shared" si="31"/>
-        <v>0.25</v>
-      </c>
       <c r="W23" t="str">
-        <f t="shared" si="32"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f>Antworten!A24</f>
         <v>43308.961828703701</v>
@@ -4138,51 +4497,51 @@
         <v>IHPO</v>
       </c>
       <c r="M24" t="str">
+        <f t="shared" si="21"/>
+        <v>PPIPHPHPIHPOPIPOIHPOIHPO</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="22"/>
-        <v>PPIPHPHPIHPOPIPOIHPOIHPO</v>
-      </c>
-      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="23"/>
         <v>5</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f t="shared" si="24"/>
-        <v>5</v>
-      </c>
-      <c r="P24">
+        <v>10</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="25"/>
-        <v>10</v>
-      </c>
-      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="26"/>
-        <v>4</v>
-      </c>
-      <c r="R24">
+        <v>24</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="27"/>
-        <v>24</v>
-      </c>
-      <c r="S24">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="28"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="29"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="U24">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="30"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="31"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f>Antworten!A25</f>
         <v>43309.453576388885</v>
@@ -4232,51 +4591,51 @@
         <v>HP</v>
       </c>
       <c r="M25" t="str">
+        <f t="shared" si="21"/>
+        <v>OIIPIOIOPIOIPOHIHP</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="22"/>
-        <v>OIIPIOIOPIOIPOHIHP</v>
-      </c>
-      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="23"/>
-        <v>7</v>
-      </c>
-      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="25"/>
-        <v>4</v>
-      </c>
-      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="26"/>
-        <v>5</v>
-      </c>
-      <c r="R25">
+        <v>18</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="27"/>
-        <v>18</v>
-      </c>
-      <c r="S25">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="28"/>
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="T25">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="29"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="U25">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="30"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="31"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="32"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <f>Antworten!A26</f>
         <v>43309.78837962963</v>
@@ -4326,51 +4685,51 @@
         <v>IHPO</v>
       </c>
       <c r="M26" t="str">
+        <f t="shared" si="21"/>
+        <v>IIIPIOIOIHOPIPOIHPOIHPO</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="22"/>
-        <v>IIIPIOIOIHOPIPOIHPOIHPO</v>
-      </c>
-      <c r="N26">
+        <v>9</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="23"/>
-        <v>9</v>
-      </c>
-      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="24"/>
-        <v>3</v>
-      </c>
-      <c r="P26">
+        <v>5</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
-      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="26"/>
-        <v>6</v>
-      </c>
-      <c r="R26">
+        <v>23</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="27"/>
-        <v>23</v>
-      </c>
-      <c r="S26">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="28"/>
-        <v>0.39130434782608697</v>
-      </c>
-      <c r="T26">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="29"/>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="U26">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="30"/>
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="31"/>
         <v>0.2608695652173913</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="32"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <f>Antworten!A27</f>
         <v>43310.899606481478</v>
@@ -4420,53 +4779,523 @@
         <v>HP</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" ref="M27" si="33">CONCATENATE(C27,D27,E27,F27,G27,H27,I27,J27,K27,L27)</f>
+        <f t="shared" ref="M27" si="31">CONCATENATE(C27,D27,E27,F27,G27,H27,I27,J27,K27,L27)</f>
         <v>IIIPIOIOIHPOIOHOIHPOHP</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27" si="34">LEN(M27)-LEN(SUBSTITUTE(M27,"I",""))</f>
+        <f t="shared" ref="N27" si="32">LEN(M27)-LEN(SUBSTITUTE(M27,"I",""))</f>
         <v>8</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27" si="35">LEN(M27)-LEN(SUBSTITUTE(M27,"H",""))</f>
+        <f t="shared" ref="O27" si="33">LEN(M27)-LEN(SUBSTITUTE(M27,"H",""))</f>
         <v>4</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27" si="36">LEN(M27)-LEN(SUBSTITUTE(M27,"P",""))</f>
+        <f t="shared" ref="P27" si="34">LEN(M27)-LEN(SUBSTITUTE(M27,"P",""))</f>
         <v>4</v>
       </c>
       <c r="Q27">
-        <f t="shared" ref="Q27" si="37">LEN(M27)-LEN(SUBSTITUTE(M27,"O",""))</f>
+        <f t="shared" ref="Q27" si="35">LEN(M27)-LEN(SUBSTITUTE(M27,"O",""))</f>
         <v>6</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27" si="38">SUM(N27:Q27)</f>
+        <f t="shared" ref="R27" si="36">SUM(N27:Q27)</f>
         <v>22</v>
       </c>
       <c r="S27">
-        <f t="shared" ref="S27" si="39">N27/R27</f>
+        <f t="shared" ref="S27" si="37">N27/R27</f>
         <v>0.36363636363636365</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27" si="40">O27/R27</f>
+        <f t="shared" ref="T27" si="38">O27/R27</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="U27">
-        <f t="shared" ref="U27" si="41">P27/R27</f>
+        <f t="shared" ref="U27" si="39">P27/R27</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="V27">
-        <f t="shared" ref="V27" si="42">Q27/R27</f>
+        <f t="shared" ref="V27" si="40">Q27/R27</f>
         <v>0.27272727272727271</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" ref="W27" si="43">LOOKUP(MAX(S27:V27),S27:V27,$S$1:$V$1)</f>
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <f>Antworten!A28</f>
+        <v>43311.39135416667</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f>Antworten!B28</f>
+        <v>antonino.cassarino@siemens.com</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(Antworten!C28=1, "P", IF(Antworten!C28=2, "I", IF(Antworten!C28=3, "O", IF(Antworten!C28=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(Antworten!D28=1, "P", IF(Antworten!D28=2, "I", IF(Antworten!D28=3, "O", IF(Antworten!D28=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(Antworten!E28=1, "O", IF(Antworten!E28=2, "IP", IF(Antworten!E28=3, "IP", IF(Antworten!E28=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(Antworten!F28="Ja", "HP",IF(Antworten!F28="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(Antworten!G28="Ja", "HP",IF(Antworten!G28="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF(Antworten!H28="Ich dusche nicht länger als notwendig","P",IF(Antworten!H28="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H28="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I28" t="str">
+        <f>IF(Antworten!I28=1, "P", IF(Antworten!I28=2, "IO", IF(Antworten!I28=3, "IO", IF(Antworten!I28=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J28" t="str">
+        <f>IF(Antworten!J28=1, "H", IF(Antworten!J28=2, "H", IF(Antworten!J28=3, "HO", IF(Antworten!J28=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K28" t="str">
+        <f>IF(Antworten!K28=1, "HI", IF(Antworten!K28=2, "HI", IF(Antworten!K28=3, "HI", IF(Antworten!K28=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L28" t="str">
+        <f>IF(Antworten!L28=1, "HP", IF(Antworten!L28=2, "HP", IF(Antworten!L28=3, "HP", IF(Antworten!L28=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ref="M28:M29" si="41">CONCATENATE(C28,D28,E28,F28,G28,H28,I28,J28,K28,L28)</f>
+        <v>OOIPHPIOPPIPOHIHP</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N29" si="42">LEN(M28)-LEN(SUBSTITUTE(M28,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O29" si="43">LEN(M28)-LEN(SUBSTITUTE(M28,"H",""))</f>
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:P29" si="44">LEN(M28)-LEN(SUBSTITUTE(M28,"P",""))</f>
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" ref="Q28:Q29" si="45">LEN(M28)-LEN(SUBSTITUTE(M28,"O",""))</f>
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <f t="shared" ref="R28:R29" si="46">SUM(N28:Q28)</f>
+        <v>17</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ref="S28:S29" si="47">N28/R28</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="T28">
+        <f t="shared" ref="T28:T29" si="48">O28/R28</f>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="U28">
+        <f t="shared" ref="U28:U29" si="49">P28/R28</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28:V29" si="50">Q28/R28</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <f>Antworten!A29</f>
+        <v>43311.408310185187</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f>Antworten!B29</f>
+        <v>richard.taupe@siemens.com</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(Antworten!C29=1, "P", IF(Antworten!C29=2, "I", IF(Antworten!C29=3, "O", IF(Antworten!C29=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(Antworten!D29=1, "P", IF(Antworten!D29=2, "I", IF(Antworten!D29=3, "O", IF(Antworten!D29=4, "H"))))</f>
+        <v>H</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(Antworten!E29=1, "O", IF(Antworten!E29=2, "IP", IF(Antworten!E29=3, "IP", IF(Antworten!E29=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(Antworten!F29="Ja", "HP",IF(Antworten!F29="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(Antworten!G29="Ja", "HP",IF(Antworten!G29="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF(Antworten!H29="Ich dusche nicht länger als notwendig","P",IF(Antworten!H29="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H29="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I29" t="str">
+        <f>IF(Antworten!I29=1, "P", IF(Antworten!I29=2, "IO", IF(Antworten!I29=3, "IO", IF(Antworten!I29=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J29" t="str">
+        <f>IF(Antworten!J29=1, "H", IF(Antworten!J29=2, "H", IF(Antworten!J29=3, "HO", IF(Antworten!J29=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K29" t="str">
+        <f>IF(Antworten!K29=1, "HI", IF(Antworten!K29=2, "HI", IF(Antworten!K29=3, "HI", IF(Antworten!K29=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L29" t="str">
+        <f>IF(Antworten!L29=1, "HP", IF(Antworten!L29=2, "HP", IF(Antworten!L29=3, "HP", IF(Antworten!L29=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="41"/>
+        <v>IHOHPIOPPIPOIHPOHP</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="44"/>
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="46"/>
+        <v>18</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="47"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="48"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="49"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="50"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <f>Antworten!A30</f>
+        <v>43311.520821759259</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f>Antworten!B30</f>
+        <v>josiane.parreira@siemens.com</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(Antworten!C30=1, "P", IF(Antworten!C30=2, "I", IF(Antworten!C30=3, "O", IF(Antworten!C30=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(Antworten!D30=1, "P", IF(Antworten!D30=2, "I", IF(Antworten!D30=3, "O", IF(Antworten!D30=4, "H"))))</f>
+        <v>H</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(Antworten!E30=1, "O", IF(Antworten!E30=2, "IP", IF(Antworten!E30=3, "IP", IF(Antworten!E30=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(Antworten!F30="Ja", "HP",IF(Antworten!F30="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(Antworten!G30="Ja", "HP",IF(Antworten!G30="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H30" t="str">
+        <f>IF(Antworten!H30="Ich dusche nicht länger als notwendig","P",IF(Antworten!H30="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H30="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I30" t="str">
+        <f>IF(Antworten!I30=1, "P", IF(Antworten!I30=2, "IO", IF(Antworten!I30=3, "IO", IF(Antworten!I30=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J30" t="str">
+        <f>IF(Antworten!J30=1, "H", IF(Antworten!J30=2, "H", IF(Antworten!J30=3, "HO", IF(Antworten!J30=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(Antworten!K30=1, "HI", IF(Antworten!K30=2, "HI", IF(Antworten!K30=3, "HI", IF(Antworten!K30=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L30" t="str">
+        <f>IF(Antworten!L30=1, "HP", IF(Antworten!L30=2, "HP", IF(Antworten!L30=3, "HP", IF(Antworten!L30=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ref="M30:M31" si="51">CONCATENATE(C30,D30,E30,F30,G30,H30,I30,J30,K30,L30)</f>
+        <v>IHIPHPIOIHPOIOIPOHIIHPO</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N31" si="52">LEN(M30)-LEN(SUBSTITUTE(M30,"I",""))</f>
+        <v>8</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O31" si="53">LEN(M30)-LEN(SUBSTITUTE(M30,"H",""))</f>
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <f t="shared" ref="P30:P31" si="54">LEN(M30)-LEN(SUBSTITUTE(M30,"P",""))</f>
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q31" si="55">LEN(M30)-LEN(SUBSTITUTE(M30,"O",""))</f>
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <f t="shared" ref="R30:R31" si="56">SUM(N30:Q30)</f>
+        <v>23</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S31" si="57">N30/R30</f>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:T31" si="58">O30/R30</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:U31" si="59">P30/R30</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ref="V30:V31" si="60">Q30/R30</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <f>Antworten!A31</f>
+        <v>43311.557800925926</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f>Antworten!B31</f>
+        <v>deinhofer.katja@gmx.at</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(Antworten!C31=1, "P", IF(Antworten!C31=2, "I", IF(Antworten!C31=3, "O", IF(Antworten!C31=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(Antworten!D31=1, "P", IF(Antworten!D31=2, "I", IF(Antworten!D31=3, "O", IF(Antworten!D31=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(Antworten!E31=1, "O", IF(Antworten!E31=2, "IP", IF(Antworten!E31=3, "IP", IF(Antworten!E31=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(Antworten!F31="Ja", "HP",IF(Antworten!F31="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(Antworten!G31="Ja", "HP",IF(Antworten!G31="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H31" t="str">
+        <f>IF(Antworten!H31="Ich dusche nicht länger als notwendig","P",IF(Antworten!H31="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H31="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I31" t="str">
+        <f>IF(Antworten!I31=1, "P", IF(Antworten!I31=2, "IO", IF(Antworten!I31=3, "IO", IF(Antworten!I31=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J31" t="str">
+        <f>IF(Antworten!J31=1, "H", IF(Antworten!J31=2, "H", IF(Antworten!J31=3, "HO", IF(Antworten!J31=4, "IPO"))))</f>
+        <v>H</v>
+      </c>
+      <c r="K31" t="str">
+        <f>IF(Antworten!K31=1, "HI", IF(Antworten!K31=2, "HI", IF(Antworten!K31=3, "HI", IF(Antworten!K31=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L31" t="str">
+        <f>IF(Antworten!L31=1, "HP", IF(Antworten!L31=2, "HP", IF(Antworten!L31=3, "HP", IF(Antworten!L31=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="51"/>
+        <v>IOOIOIOPIOHIHPOHP</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="54"/>
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="56"/>
+        <v>17</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="57"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="58"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="59"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="60"/>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="10"/>
         <v>Optimierer</v>
       </c>
     </row>
+    <row r="32" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <f>Antworten!A32</f>
+        <v>43311.601990740739</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f>Antworten!B32</f>
+        <v>gerhard.engelbrecht@siemens.com</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(Antworten!C32=1, "P", IF(Antworten!C32=2, "I", IF(Antworten!C32=3, "O", IF(Antworten!C32=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(Antworten!D32=1, "P", IF(Antworten!D32=2, "I", IF(Antworten!D32=3, "O", IF(Antworten!D32=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(Antworten!E32=1, "O", IF(Antworten!E32=2, "IP", IF(Antworten!E32=3, "IP", IF(Antworten!E32=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(Antworten!F32="Ja", "HP",IF(Antworten!F32="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(Antworten!G32="Ja", "HP",IF(Antworten!G32="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF(Antworten!H32="Ich dusche nicht länger als notwendig","P",IF(Antworten!H32="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H32="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(Antworten!I32=1, "P", IF(Antworten!I32=2, "IO", IF(Antworten!I32=3, "IO", IF(Antworten!I32=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J32" t="str">
+        <f>IF(Antworten!J32=1, "H", IF(Antworten!J32=2, "H", IF(Antworten!J32=3, "HO", IF(Antworten!J32=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(Antworten!K32=1, "HI", IF(Antworten!K32=2, "HI", IF(Antworten!K32=3, "HI", IF(Antworten!K32=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L32" t="str">
+        <f>IF(Antworten!L32=1, "HP", IF(Antworten!L32=2, "HP", IF(Antworten!L32=3, "HP", IF(Antworten!L32=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ref="M32" si="61">CONCATENATE(C32,D32,E32,F32,G32,H32,I32,J32,K32,L32)</f>
+        <v>PIIPHPHPIHPOIOIPOHIIHPO</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32" si="62">LEN(M32)-LEN(SUBSTITUTE(M32,"I",""))</f>
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32" si="63">LEN(M32)-LEN(SUBSTITUTE(M32,"H",""))</f>
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32" si="64">LEN(M32)-LEN(SUBSTITUTE(M32,"P",""))</f>
+        <v>7</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32" si="65">LEN(M32)-LEN(SUBSTITUTE(M32,"O",""))</f>
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ref="R32" si="66">SUM(N32:Q32)</f>
+        <v>23</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ref="S32" si="67">N32/R32</f>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="T32">
+        <f t="shared" ref="T32" si="68">O32/R32</f>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="U32">
+        <f t="shared" ref="U32" si="69">P32/R32</f>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32" si="70">Q32/R32</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:V27">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="S2:V32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4476,28 +5305,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.3046875" customWidth="1"/>
-    <col min="3" max="3" width="9.3828125" customWidth="1"/>
-    <col min="10" max="10" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="2.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.3828125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="2.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="131.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Antworten!A1</f>
         <v>Zeitstempel</v>
@@ -4565,7 +5394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>Antworten!A2</f>
         <v>43308.501782407409</v>
@@ -4576,7 +5405,7 @@
       </c>
       <c r="C2" t="str">
         <f>IF(Antworten!C2=1, "P", IF(Antworten!C2=2, "I", IF(Antworten!C2=3, "O", IF(Antworten!C2=4, "H"))))</f>
-        <v>O</v>
+        <v>H</v>
       </c>
       <c r="D2" t="str">
         <f>IF(Antworten!D2=1, "P", IF(Antworten!D2=2, "I", IF(Antworten!D2=3, "O", IF(Antworten!D2=4, "H"))))</f>
@@ -4604,7 +5433,7 @@
       </c>
       <c r="J2" t="str">
         <f>CONCATENATE(C2,D2,E2,F2,G2,H2,I2)</f>
-        <v>OPIPHPHPIHOIO</v>
+        <v>HPIPHPHPIHOIO</v>
       </c>
       <c r="K2">
         <f>LEN(J2)-LEN(SUBSTITUTE(J2,"I",""))</f>
@@ -4612,7 +5441,7 @@
       </c>
       <c r="L2">
         <f>LEN(J2)-LEN(SUBSTITUTE(J2,"H",""))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <f>LEN(J2)-LEN(SUBSTITUTE(J2,"P",""))</f>
@@ -4620,7 +5449,7 @@
       </c>
       <c r="N2">
         <f>LEN(J2)-LEN(SUBSTITUTE(J2,"O",""))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <f>SUM(K2:N2)</f>
@@ -4632,7 +5461,7 @@
       </c>
       <c r="Q2" s="9">
         <f>L2/O2</f>
-        <v>0.23076923076923078</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="R2" s="9">
         <f>M2/O2</f>
@@ -4640,14 +5469,18 @@
       </c>
       <c r="S2" s="9">
         <f>N2/O2</f>
-        <v>0.23076923076923078</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="T2" t="str">
-        <f>LOOKUP(MAX(P2:S2),P2:S2,$P$1:$S$1)</f>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <f>INDEX($P$1:$S$1, MATCH(U2,P2:S2,0))</f>
+        <v>Hedonist</v>
+      </c>
+      <c r="U2" s="15">
+        <f>MAX(P2:S2)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <f>Antworten!A3</f>
         <v>43308.513738425929</v>
@@ -4725,11 +5558,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="T3" t="str">
-        <f t="shared" ref="T3:T17" si="10">LOOKUP(MAX(P3:S3),P3:S3,$P$1:$S$1)</f>
+        <f t="shared" ref="T3:T32" si="10">INDEX($P$1:$S$1, MATCH(U3,P3:S3,0))</f>
         <v>Optimierer</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="15">
+        <f t="shared" ref="U3:U29" si="11">MAX(P3:S3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <f>Antworten!A4</f>
         <v>43308.518923611111</v>
@@ -4808,10 +5645,14 @@
       </c>
       <c r="T4" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <f>Antworten!A5</f>
         <v>43308.521284722221</v>
@@ -4890,10 +5731,14 @@
       </c>
       <c r="T5" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <f>Antworten!A6</f>
         <v>43308.522997685184</v>
@@ -4972,10 +5817,14 @@
       </c>
       <c r="T6" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="11"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>Antworten!A7</f>
         <v>43308.523460648146</v>
@@ -5054,10 +5903,14 @@
       </c>
       <c r="T7" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="11"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <f>Antworten!A8</f>
         <v>43308.525902777779</v>
@@ -5138,8 +5991,12 @@
         <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8" s="15">
+        <f t="shared" si="11"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <f>Antworten!A9</f>
         <v>43308.527546296296</v>
@@ -5220,8 +6077,12 @@
         <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="15">
+        <f t="shared" si="11"/>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <f>Antworten!A10</f>
         <v>43308.529374999998</v>
@@ -5300,10 +6161,14 @@
       </c>
       <c r="T10" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <f>Antworten!A11</f>
         <v>43308.531898148147</v>
@@ -5384,8 +6249,12 @@
         <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="15">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <f>Antworten!A12</f>
         <v>43308.533356481479</v>
@@ -5466,8 +6335,12 @@
         <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" s="15">
+        <f t="shared" si="11"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>Antworten!A13</f>
         <v>43308.540231481478</v>
@@ -5546,10 +6419,14 @@
       </c>
       <c r="T13" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="11"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <f>Antworten!A14</f>
         <v>43308.548194444447</v>
@@ -5630,8 +6507,12 @@
         <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14" s="15">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <f>Antworten!A15</f>
         <v>43308.550613425927</v>
@@ -5710,10 +6591,14 @@
       </c>
       <c r="T15" t="str">
         <f t="shared" si="10"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <f>Antworten!A16</f>
         <v>43308.556134259263</v>
@@ -5792,10 +6677,14 @@
       </c>
       <c r="T16" t="str">
         <f t="shared" si="10"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>Indifferent</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="11"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f>Antworten!A17</f>
         <v>43308.569039351853</v>
@@ -5876,8 +6765,12 @@
         <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="15">
+        <f t="shared" si="11"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f>Antworten!A18</f>
         <v>43308.606747685182</v>
@@ -5915,51 +6808,55 @@
         <v>P</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ref="J18:J19" si="11">CONCATENATE(C18,D18,E18,F18,G18,H18,I18)</f>
+        <f t="shared" ref="J18:J19" si="12">CONCATENATE(C18,D18,E18,F18,G18,H18,I18)</f>
         <v>OIIPIOIOPP</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K19" si="12">LEN(J18)-LEN(SUBSTITUTE(J18,"I",""))</f>
+        <f t="shared" ref="K18:K19" si="13">LEN(J18)-LEN(SUBSTITUTE(J18,"I",""))</f>
         <v>4</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L19" si="13">LEN(J18)-LEN(SUBSTITUTE(J18,"H",""))</f>
+        <f t="shared" ref="L18:L19" si="14">LEN(J18)-LEN(SUBSTITUTE(J18,"H",""))</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M19" si="14">LEN(J18)-LEN(SUBSTITUTE(J18,"P",""))</f>
+        <f t="shared" ref="M18:M19" si="15">LEN(J18)-LEN(SUBSTITUTE(J18,"P",""))</f>
         <v>3</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:N19" si="15">LEN(J18)-LEN(SUBSTITUTE(J18,"O",""))</f>
+        <f t="shared" ref="N18:N19" si="16">LEN(J18)-LEN(SUBSTITUTE(J18,"O",""))</f>
         <v>3</v>
       </c>
       <c r="O18">
-        <f t="shared" ref="O18:O19" si="16">SUM(K18:N18)</f>
+        <f t="shared" ref="O18:O19" si="17">SUM(K18:N18)</f>
         <v>10</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" ref="P18:P19" si="17">K18/O18</f>
+        <f t="shared" ref="P18:P19" si="18">K18/O18</f>
         <v>0.4</v>
       </c>
       <c r="Q18" s="9">
-        <f t="shared" ref="Q18:Q19" si="18">L18/O18</f>
+        <f t="shared" ref="Q18:Q19" si="19">L18/O18</f>
         <v>0</v>
       </c>
       <c r="R18" s="9">
-        <f t="shared" ref="R18:R19" si="19">M18/O18</f>
+        <f t="shared" ref="R18:R19" si="20">M18/O18</f>
         <v>0.3</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" ref="S18:S19" si="20">N18/O18</f>
+        <f t="shared" ref="S18:S19" si="21">N18/O18</f>
         <v>0.3</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" ref="T18:T19" si="21">LOOKUP(MAX(P18:S18),P18:S18,$P$1:$S$1)</f>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f>Antworten!A19</f>
         <v>43308.607199074075</v>
@@ -5997,51 +6894,55 @@
         <v>P</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>OPIPIOIOIHPOP</v>
       </c>
       <c r="K19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="L19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="N19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="O19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="19"/>
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="S19" s="9">
         <f t="shared" si="20"/>
         <v>0.30769230769230771</v>
       </c>
+      <c r="S19" s="9">
+        <f t="shared" si="21"/>
+        <v>0.30769230769230771</v>
+      </c>
       <c r="T19" t="str">
-        <f t="shared" si="21"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="11"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f>Antworten!A20</f>
         <v>43308.651608796295</v>
@@ -6119,11 +7020,15 @@
         <v>0.30769230769230771</v>
       </c>
       <c r="T20" t="str">
-        <f t="shared" ref="T20" si="32">LOOKUP(MAX(P20:S20),P20:S20,$P$1:$S$1)</f>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="11"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f>Antworten!A21</f>
         <v>43308.653287037036</v>
@@ -6161,51 +7066,55 @@
         <v>P</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21" si="33">CONCATENATE(C21,D21,E21,F21,G21,H21,I21)</f>
+        <f t="shared" ref="J21" si="32">CONCATENATE(C21,D21,E21,F21,G21,H21,I21)</f>
         <v>PPOHPHPIHPOP</v>
       </c>
       <c r="K21">
-        <f t="shared" ref="K21" si="34">LEN(J21)-LEN(SUBSTITUTE(J21,"I",""))</f>
+        <f t="shared" ref="K21" si="33">LEN(J21)-LEN(SUBSTITUTE(J21,"I",""))</f>
         <v>1</v>
       </c>
       <c r="L21">
-        <f t="shared" ref="L21" si="35">LEN(J21)-LEN(SUBSTITUTE(J21,"H",""))</f>
+        <f t="shared" ref="L21" si="34">LEN(J21)-LEN(SUBSTITUTE(J21,"H",""))</f>
         <v>3</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21" si="36">LEN(J21)-LEN(SUBSTITUTE(J21,"P",""))</f>
+        <f t="shared" ref="M21" si="35">LEN(J21)-LEN(SUBSTITUTE(J21,"P",""))</f>
         <v>6</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21" si="37">LEN(J21)-LEN(SUBSTITUTE(J21,"O",""))</f>
+        <f t="shared" ref="N21" si="36">LEN(J21)-LEN(SUBSTITUTE(J21,"O",""))</f>
         <v>2</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21" si="38">SUM(K21:N21)</f>
+        <f t="shared" ref="O21" si="37">SUM(K21:N21)</f>
         <v>12</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" ref="P21" si="39">K21/O21</f>
+        <f t="shared" ref="P21" si="38">K21/O21</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" ref="Q21" si="40">L21/O21</f>
+        <f t="shared" ref="Q21" si="39">L21/O21</f>
         <v>0.25</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" ref="R21" si="41">M21/O21</f>
+        <f t="shared" ref="R21" si="40">M21/O21</f>
         <v>0.5</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" ref="S21" si="42">N21/O21</f>
+        <f t="shared" ref="S21" si="41">N21/O21</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="T21" t="str">
-        <f t="shared" ref="T21" si="43">LOOKUP(MAX(P21:S21),P21:S21,$P$1:$S$1)</f>
+        <f t="shared" si="10"/>
         <v>Professional</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="15">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f>Antworten!A22</f>
         <v>43308.724189814813</v>
@@ -6243,51 +7152,55 @@
         <v>IO</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:J26" si="44">CONCATENATE(C22,D22,E22,F22,G22,H22,I22)</f>
+        <f t="shared" ref="J22:J26" si="42">CONCATENATE(C22,D22,E22,F22,G22,H22,I22)</f>
         <v>OIIPHPIOIHPOIO</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K26" si="45">LEN(J22)-LEN(SUBSTITUTE(J22,"I",""))</f>
+        <f t="shared" ref="K22:K26" si="43">LEN(J22)-LEN(SUBSTITUTE(J22,"I",""))</f>
         <v>5</v>
       </c>
       <c r="L22">
-        <f t="shared" ref="L22:L26" si="46">LEN(J22)-LEN(SUBSTITUTE(J22,"H",""))</f>
+        <f t="shared" ref="L22:L26" si="44">LEN(J22)-LEN(SUBSTITUTE(J22,"H",""))</f>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" ref="M22:M26" si="47">LEN(J22)-LEN(SUBSTITUTE(J22,"P",""))</f>
+        <f t="shared" ref="M22:M26" si="45">LEN(J22)-LEN(SUBSTITUTE(J22,"P",""))</f>
         <v>3</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N26" si="48">LEN(J22)-LEN(SUBSTITUTE(J22,"O",""))</f>
+        <f t="shared" ref="N22:N26" si="46">LEN(J22)-LEN(SUBSTITUTE(J22,"O",""))</f>
         <v>4</v>
       </c>
       <c r="O22">
-        <f t="shared" ref="O22:O26" si="49">SUM(K22:N22)</f>
+        <f t="shared" ref="O22:O26" si="47">SUM(K22:N22)</f>
         <v>14</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" ref="P22:P26" si="50">K22/O22</f>
+        <f t="shared" ref="P22:P26" si="48">K22/O22</f>
         <v>0.35714285714285715</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" ref="Q22:Q26" si="51">L22/O22</f>
+        <f t="shared" ref="Q22:Q26" si="49">L22/O22</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" ref="R22:R26" si="52">M22/O22</f>
+        <f t="shared" ref="R22:R26" si="50">M22/O22</f>
         <v>0.21428571428571427</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" ref="S22:S26" si="53">N22/O22</f>
+        <f t="shared" ref="S22:S26" si="51">N22/O22</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="T22" t="str">
-        <f t="shared" ref="T22:T26" si="54">LOOKUP(MAX(P22:S22),P22:S22,$P$1:$S$1)</f>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="11"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f>Antworten!A23</f>
         <v>43308.862199074072</v>
@@ -6325,51 +7238,55 @@
         <v>IO</v>
       </c>
       <c r="J23" t="str">
+        <f t="shared" si="42"/>
+        <v>OOIPHPHPIHOIO</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="44"/>
-        <v>OOIPHPHPIHOIO</v>
-      </c>
-      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="45"/>
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <f t="shared" si="46"/>
-        <v>3</v>
-      </c>
-      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="47"/>
-        <v>3</v>
-      </c>
-      <c r="N23">
+        <v>13</v>
+      </c>
+      <c r="P23" s="9">
         <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="O23">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Q23" s="9">
         <f t="shared" si="49"/>
-        <v>13</v>
-      </c>
-      <c r="P23" s="9">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R23" s="9">
         <f t="shared" si="50"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="S23" s="9">
         <f t="shared" si="51"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="R23" s="9">
-        <f t="shared" si="52"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="S23" s="9">
-        <f t="shared" si="53"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="T23" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="10"/>
         <v>Optimierer</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="15">
+        <f t="shared" si="11"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f>Antworten!A24</f>
         <v>43308.961828703701</v>
@@ -6407,51 +7324,55 @@
         <v>P</v>
       </c>
       <c r="J24" t="str">
+        <f t="shared" si="42"/>
+        <v>PPIPHPHPIHPOP</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="43"/>
+        <v>2</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="44"/>
-        <v>PPIPHPHPIHPOP</v>
-      </c>
-      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="45"/>
-        <v>2</v>
-      </c>
-      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="46"/>
-        <v>3</v>
-      </c>
-      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="47"/>
-        <v>7</v>
-      </c>
-      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="P24" s="9">
         <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="O24">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Q24" s="9">
         <f t="shared" si="49"/>
-        <v>13</v>
-      </c>
-      <c r="P24" s="9">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R24" s="9">
         <f t="shared" si="50"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="Q24" s="9">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="S24" s="9">
         <f t="shared" si="51"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="R24" s="9">
-        <f t="shared" si="52"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+      <c r="U24" s="15">
+        <f t="shared" si="11"/>
         <v>0.53846153846153844</v>
       </c>
-      <c r="S24" s="9">
-        <f t="shared" si="53"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="T24" t="str">
-        <f t="shared" si="54"/>
-        <v>Professional</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f>Antworten!A25</f>
         <v>43309.453576388885</v>
@@ -6489,51 +7410,55 @@
         <v>IO</v>
       </c>
       <c r="J25" t="str">
+        <f t="shared" si="42"/>
+        <v>OIIPIOIOPIO</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="44"/>
-        <v>OIIPIOIOPIO</v>
-      </c>
-      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="45"/>
-        <v>5</v>
-      </c>
-      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="47"/>
+        <v>11</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="48"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="49"/>
-        <v>11</v>
-      </c>
-      <c r="P25" s="9">
+      <c r="R25" s="9">
         <f t="shared" si="50"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="51"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="11"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="Q25" s="9">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="9">
-        <f t="shared" si="52"/>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="S25" s="9">
-        <f t="shared" si="53"/>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="T25" t="str">
-        <f t="shared" si="54"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <f>Antworten!A26</f>
         <v>43309.78837962963</v>
@@ -6571,51 +7496,55 @@
         <v>P</v>
       </c>
       <c r="J26" t="str">
+        <f t="shared" si="42"/>
+        <v>IIIPIOIOIHOP</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="44"/>
-        <v>IIIPIOIOIHOP</v>
-      </c>
-      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="45"/>
-        <v>6</v>
-      </c>
-      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="47"/>
-        <v>2</v>
-      </c>
-      <c r="N26">
+        <v>12</v>
+      </c>
+      <c r="P26" s="9">
         <f t="shared" si="48"/>
-        <v>3</v>
-      </c>
-      <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26" s="9">
         <f t="shared" si="49"/>
-        <v>12</v>
-      </c>
-      <c r="P26" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R26" s="9">
         <f t="shared" si="50"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S26" s="9">
+        <f t="shared" si="51"/>
+        <v>0.25</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U26" s="15">
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="51"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="R26" s="9">
-        <f t="shared" si="52"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="S26" s="9">
-        <f t="shared" si="53"/>
-        <v>0.25</v>
-      </c>
-      <c r="T26" t="str">
-        <f t="shared" si="54"/>
-        <v>Optimierer</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <f>Antworten!A27</f>
         <v>43310.899606481478</v>
@@ -6653,53 +7582,487 @@
         <v>IO</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27" si="55">CONCATENATE(C27,D27,E27,F27,G27,H27,I27)</f>
+        <f t="shared" ref="J27" si="52">CONCATENATE(C27,D27,E27,F27,G27,H27,I27)</f>
         <v>IIIPIOIOIHPOIO</v>
       </c>
       <c r="K27">
-        <f t="shared" ref="K27" si="56">LEN(J27)-LEN(SUBSTITUTE(J27,"I",""))</f>
+        <f t="shared" ref="K27" si="53">LEN(J27)-LEN(SUBSTITUTE(J27,"I",""))</f>
         <v>7</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27" si="57">LEN(J27)-LEN(SUBSTITUTE(J27,"H",""))</f>
+        <f t="shared" ref="L27" si="54">LEN(J27)-LEN(SUBSTITUTE(J27,"H",""))</f>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="58">LEN(J27)-LEN(SUBSTITUTE(J27,"P",""))</f>
+        <f t="shared" ref="M27" si="55">LEN(J27)-LEN(SUBSTITUTE(J27,"P",""))</f>
         <v>2</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27" si="59">LEN(J27)-LEN(SUBSTITUTE(J27,"O",""))</f>
+        <f t="shared" ref="N27" si="56">LEN(J27)-LEN(SUBSTITUTE(J27,"O",""))</f>
         <v>4</v>
       </c>
       <c r="O27">
-        <f t="shared" ref="O27" si="60">SUM(K27:N27)</f>
+        <f t="shared" ref="O27" si="57">SUM(K27:N27)</f>
         <v>14</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" ref="P27" si="61">K27/O27</f>
+        <f t="shared" ref="P27" si="58">K27/O27</f>
         <v>0.5</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" ref="Q27" si="62">L27/O27</f>
+        <f t="shared" ref="Q27" si="59">L27/O27</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" ref="R27" si="63">M27/O27</f>
+        <f t="shared" ref="R27" si="60">M27/O27</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" ref="S27" si="64">N27/O27</f>
+        <f t="shared" ref="S27" si="61">N27/O27</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="T27" t="str">
-        <f t="shared" ref="T27" si="65">LOOKUP(MAX(P27:S27),P27:S27,$P$1:$S$1)</f>
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U27" s="15">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <f>Antworten!A28</f>
+        <v>43311.39135416667</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f>Antworten!B28</f>
+        <v>antonino.cassarino@siemens.com</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(Antworten!C28=1, "P", IF(Antworten!C28=2, "I", IF(Antworten!C28=3, "O", IF(Antworten!C28=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D28" t="str">
+        <f>IF(Antworten!D28=1, "P", IF(Antworten!D28=2, "I", IF(Antworten!D28=3, "O", IF(Antworten!D28=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(Antworten!E28=1, "O", IF(Antworten!E28=2, "IP", IF(Antworten!E28=3, "IP", IF(Antworten!E28=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(Antworten!F28="Ja", "HP",IF(Antworten!F28="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(Antworten!G28="Ja", "HP",IF(Antworten!G28="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H28" t="str">
+        <f>IF(Antworten!H28="Ich dusche nicht länger als notwendig","P",IF(Antworten!H28="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H28="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I28" t="str">
+        <f>IF(Antworten!I28=1, "P", IF(Antworten!I28=2, "IO", IF(Antworten!I28=3, "IO", IF(Antworten!I28=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" ref="J28:J29" si="62">CONCATENATE(C28,D28,E28,F28,G28,H28,I28)</f>
+        <v>OOIPHPIOPP</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:K29" si="63">LEN(J28)-LEN(SUBSTITUTE(J28,"I",""))</f>
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L29" si="64">LEN(J28)-LEN(SUBSTITUTE(J28,"H",""))</f>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28:M29" si="65">LEN(J28)-LEN(SUBSTITUTE(J28,"P",""))</f>
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:N29" si="66">LEN(J28)-LEN(SUBSTITUTE(J28,"O",""))</f>
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O29" si="67">SUM(K28:N28)</f>
+        <v>10</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" ref="P28:P29" si="68">K28/O28</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" ref="Q28:Q29" si="69">L28/O28</f>
+        <v>0.1</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" ref="R28:R29" si="70">M28/O28</f>
+        <v>0.4</v>
+      </c>
+      <c r="S28" s="9">
+        <f t="shared" ref="S28:S29" si="71">N28/O28</f>
+        <v>0.3</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+      <c r="U28" s="15">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <f>Antworten!A29</f>
+        <v>43311.408310185187</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f>Antworten!B29</f>
+        <v>richard.taupe@siemens.com</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(Antworten!C29=1, "P", IF(Antworten!C29=2, "I", IF(Antworten!C29=3, "O", IF(Antworten!C29=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D29" t="str">
+        <f>IF(Antworten!D29=1, "P", IF(Antworten!D29=2, "I", IF(Antworten!D29=3, "O", IF(Antworten!D29=4, "H"))))</f>
+        <v>H</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(Antworten!E29=1, "O", IF(Antworten!E29=2, "IP", IF(Antworten!E29=3, "IP", IF(Antworten!E29=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(Antworten!F29="Ja", "HP",IF(Antworten!F29="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(Antworten!G29="Ja", "HP",IF(Antworten!G29="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H29" t="str">
+        <f>IF(Antworten!H29="Ich dusche nicht länger als notwendig","P",IF(Antworten!H29="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H29="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I29" t="str">
+        <f>IF(Antworten!I29=1, "P", IF(Antworten!I29=2, "IO", IF(Antworten!I29=3, "IO", IF(Antworten!I29=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="62"/>
+        <v>IHOHPIOPP</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="63"/>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="65"/>
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="66"/>
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="67"/>
+        <v>9</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="68"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="69"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="70"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S29" s="9">
+        <f t="shared" si="71"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <f>Antworten!A30</f>
+        <v>43311.520821759259</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f>Antworten!B30</f>
+        <v>josiane.parreira@siemens.com</v>
+      </c>
+      <c r="C30" t="str">
+        <f>IF(Antworten!C30=1, "P", IF(Antworten!C30=2, "I", IF(Antworten!C30=3, "O", IF(Antworten!C30=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D30" t="str">
+        <f>IF(Antworten!D30=1, "P", IF(Antworten!D30=2, "I", IF(Antworten!D30=3, "O", IF(Antworten!D30=4, "H"))))</f>
+        <v>H</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(Antworten!E30=1, "O", IF(Antworten!E30=2, "IP", IF(Antworten!E30=3, "IP", IF(Antworten!E30=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(Antworten!F30="Ja", "HP",IF(Antworten!F30="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(Antworten!G30="Ja", "HP",IF(Antworten!G30="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H30" t="str">
+        <f>IF(Antworten!H30="Ich dusche nicht länger als notwendig","P",IF(Antworten!H30="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H30="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I30" t="str">
+        <f>IF(Antworten!I30=1, "P", IF(Antworten!I30=2, "IO", IF(Antworten!I30=3, "IO", IF(Antworten!I30=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:J31" si="72">CONCATENATE(C30,D30,E30,F30,G30,H30,I30)</f>
+        <v>IHIPHPIOIHPOIO</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K31" si="73">LEN(J30)-LEN(SUBSTITUTE(J30,"I",""))</f>
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <f t="shared" ref="L30:L31" si="74">LEN(J30)-LEN(SUBSTITUTE(J30,"H",""))</f>
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M31" si="75">LEN(J30)-LEN(SUBSTITUTE(J30,"P",""))</f>
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <f t="shared" ref="N30:N31" si="76">LEN(J30)-LEN(SUBSTITUTE(J30,"O",""))</f>
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O31" si="77">SUM(K30:N30)</f>
+        <v>14</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30:P31" si="78">K30/O30</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" ref="Q30:Q31" si="79">L30/O30</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" ref="R30:R31" si="80">M30/O30</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="S30" s="9">
+        <f t="shared" ref="S30:S31" si="81">N30/O30</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="10"/>
+        <v>Indifferent</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" ref="U30:U31" si="82">MAX(P30:S30)</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <f>Antworten!A31</f>
+        <v>43311.557800925926</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f>Antworten!B31</f>
+        <v>deinhofer.katja@gmx.at</v>
+      </c>
+      <c r="C31" t="str">
+        <f>IF(Antworten!C31=1, "P", IF(Antworten!C31=2, "I", IF(Antworten!C31=3, "O", IF(Antworten!C31=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D31" t="str">
+        <f>IF(Antworten!D31=1, "P", IF(Antworten!D31=2, "I", IF(Antworten!D31=3, "O", IF(Antworten!D31=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(Antworten!E31=1, "O", IF(Antworten!E31=2, "IP", IF(Antworten!E31=3, "IP", IF(Antworten!E31=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(Antworten!F31="Ja", "HP",IF(Antworten!F31="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(Antworten!G31="Ja", "HP",IF(Antworten!G31="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H31" t="str">
+        <f>IF(Antworten!H31="Ich dusche nicht länger als notwendig","P",IF(Antworten!H31="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H31="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I31" t="str">
+        <f>IF(Antworten!I31=1, "P", IF(Antworten!I31=2, "IO", IF(Antworten!I31=3, "IO", IF(Antworten!I31=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="72"/>
+        <v>IOOIOIOPIO</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="73"/>
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="76"/>
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="77"/>
+        <v>10</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="78"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="80"/>
+        <v>0.1</v>
+      </c>
+      <c r="S31" s="9">
+        <f t="shared" si="81"/>
+        <v>0.5</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="10"/>
         <v>Optimierer</v>
       </c>
+      <c r="U31" s="15">
+        <f t="shared" si="82"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <f>Antworten!A32</f>
+        <v>43311.601990740739</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f>Antworten!B32</f>
+        <v>gerhard.engelbrecht@siemens.com</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(Antworten!C32=1, "P", IF(Antworten!C32=2, "I", IF(Antworten!C32=3, "O", IF(Antworten!C32=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(Antworten!D32=1, "P", IF(Antworten!D32=2, "I", IF(Antworten!D32=3, "O", IF(Antworten!D32=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(Antworten!E32=1, "O", IF(Antworten!E32=2, "IP", IF(Antworten!E32=3, "IP", IF(Antworten!E32=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(Antworten!F32="Ja", "HP",IF(Antworten!F32="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(Antworten!G32="Ja", "HP",IF(Antworten!G32="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF(Antworten!H32="Ich dusche nicht länger als notwendig","P",IF(Antworten!H32="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H32="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(Antworten!I32=1, "P", IF(Antworten!I32=2, "IO", IF(Antworten!I32=3, "IO", IF(Antworten!I32=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ref="J32" si="83">CONCATENATE(C32,D32,E32,F32,G32,H32,I32)</f>
+        <v>PIIPHPHPIHPOIO</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32" si="84">LEN(J32)-LEN(SUBSTITUTE(J32,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <f t="shared" ref="L32" si="85">LEN(J32)-LEN(SUBSTITUTE(J32,"H",""))</f>
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32" si="86">LEN(J32)-LEN(SUBSTITUTE(J32,"P",""))</f>
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32" si="87">LEN(J32)-LEN(SUBSTITUTE(J32,"O",""))</f>
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32" si="88">SUM(K32:N32)</f>
+        <v>14</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32" si="89">K32/O32</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" ref="Q32" si="90">L32/O32</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" ref="R32" si="91">M32/O32</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="S32" s="9">
+        <f t="shared" ref="S32" si="92">N32/O32</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="10"/>
+        <v>Professional</v>
+      </c>
+      <c r="U32" s="15">
+        <f t="shared" ref="U32" si="93">MAX(P32:S32)</f>
+        <v>0.35714285714285715</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:S27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="P2:S32">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6708,24 +8071,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3828125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="10.15234375" customWidth="1"/>
-    <col min="7" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="142.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -6786,8 +8149,8 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="12.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:24" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43305.646828703706</v>
       </c>
@@ -6849,7 +8212,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="14.1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -6918,7 +8281,7 @@
         <v>HOP</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -6927,7 +8290,7 @@
         <v>OHPIPIHHPHPHPIHPOIHPOIHPOIOIPOHIIHO</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
@@ -6943,7 +8306,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
@@ -6966,7 +8329,7 @@
         <v>Hedonist</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -6982,7 +8345,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
@@ -6998,7 +8361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
       <c r="E23" s="7">
         <f>SUM(E19:E22)</f>
         <v>35</v>
@@ -7008,4 +8371,304 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/survey/Auswertung.xlsx
+++ b/survey/Auswertung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="20010" windowHeight="8055" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="20010" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Antworten" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="136">
   <si>
     <t>I</t>
   </si>
@@ -409,6 +409,30 @@
   </si>
   <si>
     <t>gerhard.engelbrecht@siemens.com</t>
+  </si>
+  <si>
+    <t>sigvard.lingner@siemens.com</t>
+  </si>
+  <si>
+    <t>herwig.schreiner@siemens.com</t>
+  </si>
+  <si>
+    <t>brigitte.maier@siemens.com</t>
+  </si>
+  <si>
+    <t>gerfried.krames@siemens.com</t>
+  </si>
+  <si>
+    <t>jonas.pettersson@siemens.com</t>
+  </si>
+  <si>
+    <t>florian.sestak@siemens.com</t>
+  </si>
+  <si>
+    <t>Stefan.jakob@gmx.at</t>
+  </si>
+  <si>
+    <t>j.gerald@gmx.at</t>
   </si>
 </sst>
 </file>
@@ -530,7 +554,97 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -851,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2271,6 +2385,358 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
     </row>
+    <row r="33" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43311.651446759257</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43311.659178240741</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4</v>
+      </c>
+      <c r="K34" s="3">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3">
+        <v>3</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43312.330925925926</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
+        <v>2</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43312.417291666665</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3">
+        <v>3</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43312.453483796293</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>4</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43312.562743055554</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>4</v>
+      </c>
+      <c r="K38" s="3">
+        <v>4</v>
+      </c>
+      <c r="L38" s="3">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43312.63140046296</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="3">
+        <v>4</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4</v>
+      </c>
+      <c r="K39" s="3">
+        <v>2</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43312.647743055553</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>2</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" s="3">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2279,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3413,7 +3879,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f>Antworten!A13</f>
         <v>43308.540231481478</v>
@@ -3507,7 +3973,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <f>Antworten!A14</f>
         <v>43308.548194444447</v>
@@ -3601,7 +4067,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <f>Antworten!A15</f>
         <v>43308.550613425927</v>
@@ -3695,7 +4161,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f>Antworten!A16</f>
         <v>43308.556134259263</v>
@@ -3789,7 +4255,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>Antworten!A17</f>
         <v>43308.569039351853</v>
@@ -3883,7 +4349,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <f>Antworten!A18</f>
         <v>43308.606747685182</v>
@@ -3977,7 +4443,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <f>Antworten!A19</f>
         <v>43308.607199074075</v>
@@ -4071,7 +4537,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <f>Antworten!A20</f>
         <v>43308.651608796295</v>
@@ -4165,7 +4631,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <f>Antworten!A21</f>
         <v>43308.653287037036</v>
@@ -4259,7 +4725,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <f>Antworten!A22</f>
         <v>43308.724189814813</v>
@@ -4353,7 +4819,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <f>Antworten!A23</f>
         <v>43308.862199074072</v>
@@ -4447,7 +4913,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <f>Antworten!A24</f>
         <v>43308.961828703701</v>
@@ -4541,7 +5007,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <f>Antworten!A25</f>
         <v>43309.453576388885</v>
@@ -4635,7 +5101,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <f>Antworten!A26</f>
         <v>43309.78837962963</v>
@@ -4729,7 +5195,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <f>Antworten!A27</f>
         <v>43310.899606481478</v>
@@ -4823,7 +5289,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <f>Antworten!A28</f>
         <v>43311.39135416667</v>
@@ -4917,7 +5383,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <f>Antworten!A29</f>
         <v>43311.408310185187</v>
@@ -5011,7 +5477,7 @@
         <v>Professional</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <f>Antworten!A30</f>
         <v>43311.520821759259</v>
@@ -5105,7 +5571,7 @@
         <v>Indifferent</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <f>Antworten!A31</f>
         <v>43311.557800925926</v>
@@ -5199,7 +5665,7 @@
         <v>Optimierer</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <f>Antworten!A32</f>
         <v>43311.601990740739</v>
@@ -5293,9 +5759,761 @@
         <v>Indifferent</v>
       </c>
     </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <f>Antworten!A33</f>
+        <v>43311.651446759257</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f>Antworten!B33</f>
+        <v>sigvard.lingner@siemens.com</v>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(Antworten!C33=1, "P", IF(Antworten!C33=2, "I", IF(Antworten!C33=3, "O", IF(Antworten!C33=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(Antworten!D33=1, "P", IF(Antworten!D33=2, "I", IF(Antworten!D33=3, "O", IF(Antworten!D33=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(Antworten!E33=1, "O", IF(Antworten!E33=2, "IP", IF(Antworten!E33=3, "IP", IF(Antworten!E33=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(Antworten!F33="Ja", "HP",IF(Antworten!F33="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(Antworten!G33="Ja", "HP",IF(Antworten!G33="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H33" t="str">
+        <f>IF(Antworten!H33="Ich dusche nicht länger als notwendig","P",IF(Antworten!H33="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H33="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I33" t="str">
+        <f>IF(Antworten!I33=1, "P", IF(Antworten!I33=2, "IO", IF(Antworten!I33=3, "IO", IF(Antworten!I33=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J33" t="str">
+        <f>IF(Antworten!J33=1, "H", IF(Antworten!J33=2, "H", IF(Antworten!J33=3, "HO", IF(Antworten!J33=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(Antworten!K33=1, "HI", IF(Antworten!K33=2, "HI", IF(Antworten!K33=3, "HI", IF(Antworten!K33=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L33" t="str">
+        <f>IF(Antworten!L33=1, "HP", IF(Antworten!L33=2, "HP", IF(Antworten!L33=3, "HP", IF(Antworten!L33=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ref="M33:M36" si="71">CONCATENATE(C33,D33,E33,F33,G33,H33,I33,J33,K33,L33)</f>
+        <v>OIIPHPIOPIOIPOHIHP</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N36" si="72">LEN(M33)-LEN(SUBSTITUTE(M33,"I",""))</f>
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:O36" si="73">LEN(M33)-LEN(SUBSTITUTE(M33,"H",""))</f>
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P36" si="74">LEN(M33)-LEN(SUBSTITUTE(M33,"P",""))</f>
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q36" si="75">LEN(M33)-LEN(SUBSTITUTE(M33,"O",""))</f>
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:R36" si="76">SUM(N33:Q33)</f>
+        <v>18</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33:S36" si="77">N33/R33</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ref="T33:T36" si="78">O33/R33</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U36" si="79">P33/R33</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V36" si="80">Q33/R33</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" ref="W33:W36" si="81">INDEX($S$1:$V$1, MATCH(MAX(S33:V33),S33:V33,0))</f>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <f>Antworten!A34</f>
+        <v>43311.659178240741</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f>Antworten!B34</f>
+        <v>herwig.schreiner@siemens.com</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(Antworten!C34=1, "P", IF(Antworten!C34=2, "I", IF(Antworten!C34=3, "O", IF(Antworten!C34=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(Antworten!D34=1, "P", IF(Antworten!D34=2, "I", IF(Antworten!D34=3, "O", IF(Antworten!D34=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(Antworten!E34=1, "O", IF(Antworten!E34=2, "IP", IF(Antworten!E34=3, "IP", IF(Antworten!E34=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(Antworten!F34="Ja", "HP",IF(Antworten!F34="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(Antworten!G34="Ja", "HP",IF(Antworten!G34="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(Antworten!H34="Ich dusche nicht länger als notwendig","P",IF(Antworten!H34="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H34="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(Antworten!I34=1, "P", IF(Antworten!I34=2, "IO", IF(Antworten!I34=3, "IO", IF(Antworten!I34=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J34" t="str">
+        <f>IF(Antworten!J34=1, "H", IF(Antworten!J34=2, "H", IF(Antworten!J34=3, "HO", IF(Antworten!J34=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(Antworten!K34=1, "HI", IF(Antworten!K34=2, "HI", IF(Antworten!K34=3, "HI", IF(Antworten!K34=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L34" t="str">
+        <f>IF(Antworten!L34=1, "HP", IF(Antworten!L34=2, "HP", IF(Antworten!L34=3, "HP", IF(Antworten!L34=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="71"/>
+        <v>OOIPHPHPIHPOPIPOHIHP</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="72"/>
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="76"/>
+        <v>20</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="77"/>
+        <v>0.2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="78"/>
+        <v>0.25</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="79"/>
+        <v>0.35</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="80"/>
+        <v>0.2</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="81"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <f>Antworten!A35</f>
+        <v>43312.330925925926</v>
+      </c>
+      <c r="B35" s="11" t="str">
+        <f>Antworten!B35</f>
+        <v>brigitte.maier@siemens.com</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(Antworten!C35=1, "P", IF(Antworten!C35=2, "I", IF(Antworten!C35=3, "O", IF(Antworten!C35=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(Antworten!D35=1, "P", IF(Antworten!D35=2, "I", IF(Antworten!D35=3, "O", IF(Antworten!D35=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(Antworten!E35=1, "O", IF(Antworten!E35=2, "IP", IF(Antworten!E35=3, "IP", IF(Antworten!E35=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(Antworten!F35="Ja", "HP",IF(Antworten!F35="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(Antworten!G35="Ja", "HP",IF(Antworten!G35="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(Antworten!H35="Ich dusche nicht länger als notwendig","P",IF(Antworten!H35="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H35="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(Antworten!I35=1, "P", IF(Antworten!I35=2, "IO", IF(Antworten!I35=3, "IO", IF(Antworten!I35=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(Antworten!J35=1, "H", IF(Antworten!J35=2, "H", IF(Antworten!J35=3, "HO", IF(Antworten!J35=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(Antworten!K35=1, "HI", IF(Antworten!K35=2, "HI", IF(Antworten!K35=3, "HI", IF(Antworten!K35=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L35" t="str">
+        <f>IF(Antworten!L35=1, "HP", IF(Antworten!L35=2, "HP", IF(Antworten!L35=3, "HP", IF(Antworten!L35=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="71"/>
+        <v>OIIPHPHPIHPOPIPOHIIHPO</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="74"/>
+        <v>7</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="76"/>
+        <v>22</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="77"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="78"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="79"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="80"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="81"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <f>Antworten!A36</f>
+        <v>43312.417291666665</v>
+      </c>
+      <c r="B36" s="11" t="str">
+        <f>Antworten!B36</f>
+        <v>gerfried.krames@siemens.com</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(Antworten!C36=1, "P", IF(Antworten!C36=2, "I", IF(Antworten!C36=3, "O", IF(Antworten!C36=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(Antworten!D36=1, "P", IF(Antworten!D36=2, "I", IF(Antworten!D36=3, "O", IF(Antworten!D36=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(Antworten!E36=1, "O", IF(Antworten!E36=2, "IP", IF(Antworten!E36=3, "IP", IF(Antworten!E36=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(Antworten!F36="Ja", "HP",IF(Antworten!F36="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(Antworten!G36="Ja", "HP",IF(Antworten!G36="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(Antworten!H36="Ich dusche nicht länger als notwendig","P",IF(Antworten!H36="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H36="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(Antworten!I36=1, "P", IF(Antworten!I36=2, "IO", IF(Antworten!I36=3, "IO", IF(Antworten!I36=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J36" t="str">
+        <f>IF(Antworten!J36=1, "H", IF(Antworten!J36=2, "H", IF(Antworten!J36=3, "HO", IF(Antworten!J36=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(Antworten!K36=1, "HI", IF(Antworten!K36=2, "HI", IF(Antworten!K36=3, "HI", IF(Antworten!K36=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L36" t="str">
+        <f>IF(Antworten!L36=1, "HP", IF(Antworten!L36=2, "HP", IF(Antworten!L36=3, "HP", IF(Antworten!L36=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="71"/>
+        <v>IPIPHPHPIHPOIOIPOIHPOHP</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="72"/>
+        <v>6</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="73"/>
+        <v>5</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="74"/>
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="75"/>
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="76"/>
+        <v>23</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="77"/>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="78"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="79"/>
+        <v>0.34782608695652173</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="80"/>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="81"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <f>Antworten!A37</f>
+        <v>43312.453483796293</v>
+      </c>
+      <c r="B37" s="11" t="str">
+        <f>Antworten!B37</f>
+        <v>jonas.pettersson@siemens.com</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(Antworten!C37=1, "P", IF(Antworten!C37=2, "I", IF(Antworten!C37=3, "O", IF(Antworten!C37=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(Antworten!D37=1, "P", IF(Antworten!D37=2, "I", IF(Antworten!D37=3, "O", IF(Antworten!D37=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(Antworten!E37=1, "O", IF(Antworten!E37=2, "IP", IF(Antworten!E37=3, "IP", IF(Antworten!E37=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(Antworten!F37="Ja", "HP",IF(Antworten!F37="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(Antworten!G37="Ja", "HP",IF(Antworten!G37="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(Antworten!H37="Ich dusche nicht länger als notwendig","P",IF(Antworten!H37="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H37="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(Antworten!I37=1, "P", IF(Antworten!I37=2, "IO", IF(Antworten!I37=3, "IO", IF(Antworten!I37=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J37" t="str">
+        <f>IF(Antworten!J37=1, "H", IF(Antworten!J37=2, "H", IF(Antworten!J37=3, "HO", IF(Antworten!J37=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(Antworten!K37=1, "HI", IF(Antworten!K37=2, "HI", IF(Antworten!K37=3, "HI", IF(Antworten!K37=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L37" t="str">
+        <f>IF(Antworten!L37=1, "HP", IF(Antworten!L37=2, "HP", IF(Antworten!L37=3, "HP", IF(Antworten!L37=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" ref="M37" si="82">CONCATENATE(C37,D37,E37,F37,G37,H37,I37,J37,K37,L37)</f>
+        <v>OIIPHPHPPPIPOIHPOHP</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37" si="83">LEN(M37)-LEN(SUBSTITUTE(M37,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37" si="84">LEN(M37)-LEN(SUBSTITUTE(M37,"H",""))</f>
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37" si="85">LEN(M37)-LEN(SUBSTITUTE(M37,"P",""))</f>
+        <v>8</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37" si="86">LEN(M37)-LEN(SUBSTITUTE(M37,"O",""))</f>
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37" si="87">SUM(N37:Q37)</f>
+        <v>19</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ref="S37" si="88">N37/R37</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37" si="89">O37/R37</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37" si="90">P37/R37</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V37" si="91">Q37/R37</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" ref="W37" si="92">INDEX($S$1:$V$1, MATCH(MAX(S37:V37),S37:V37,0))</f>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <f>Antworten!A38</f>
+        <v>43312.562743055554</v>
+      </c>
+      <c r="B38" s="11" t="str">
+        <f>Antworten!B38</f>
+        <v>florian.sestak@siemens.com</v>
+      </c>
+      <c r="C38" t="str">
+        <f>IF(Antworten!C38=1, "P", IF(Antworten!C38=2, "I", IF(Antworten!C38=3, "O", IF(Antworten!C38=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(Antworten!D38=1, "P", IF(Antworten!D38=2, "I", IF(Antworten!D38=3, "O", IF(Antworten!D38=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(Antworten!E38=1, "O", IF(Antworten!E38=2, "IP", IF(Antworten!E38=3, "IP", IF(Antworten!E38=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(Antworten!F38="Ja", "HP",IF(Antworten!F38="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(Antworten!G38="Ja", "HP",IF(Antworten!G38="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H38" t="str">
+        <f>IF(Antworten!H38="Ich dusche nicht länger als notwendig","P",IF(Antworten!H38="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H38="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(Antworten!I38=1, "P", IF(Antworten!I38=2, "IO", IF(Antworten!I38=3, "IO", IF(Antworten!I38=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J38" t="str">
+        <f>IF(Antworten!J38=1, "H", IF(Antworten!J38=2, "H", IF(Antworten!J38=3, "HO", IF(Antworten!J38=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(Antworten!K38=1, "HI", IF(Antworten!K38=2, "HI", IF(Antworten!K38=3, "HI", IF(Antworten!K38=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="L38" t="str">
+        <f>IF(Antworten!L38=1, "HP", IF(Antworten!L38=2, "HP", IF(Antworten!L38=3, "HP", IF(Antworten!L38=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ref="M38:M40" si="93">CONCATENATE(C38,D38,E38,F38,G38,H38,I38,J38,K38,L38)</f>
+        <v>OIIPHPIOIHPOPIPOIHPOIHPO</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N40" si="94">LEN(M38)-LEN(SUBSTITUTE(M38,"I",""))</f>
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O40" si="95">LEN(M38)-LEN(SUBSTITUTE(M38,"H",""))</f>
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <f t="shared" ref="P38:P40" si="96">LEN(M38)-LEN(SUBSTITUTE(M38,"P",""))</f>
+        <v>7</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38:Q40" si="97">LEN(M38)-LEN(SUBSTITUTE(M38,"O",""))</f>
+        <v>6</v>
+      </c>
+      <c r="R38">
+        <f t="shared" ref="R38:R40" si="98">SUM(N38:Q38)</f>
+        <v>24</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ref="S38:S40" si="99">N38/R38</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="T38">
+        <f t="shared" ref="T38:T40" si="100">O38/R38</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:U40" si="101">P38/R38</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ref="V38:V40" si="102">Q38/R38</f>
+        <v>0.25</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" ref="W38:W40" si="103">INDEX($S$1:$V$1, MATCH(MAX(S38:V38),S38:V38,0))</f>
+        <v>Indifferent</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <f>Antworten!A39</f>
+        <v>43312.63140046296</v>
+      </c>
+      <c r="B39" s="11" t="str">
+        <f>Antworten!B39</f>
+        <v>Stefan.jakob@gmx.at</v>
+      </c>
+      <c r="C39" t="str">
+        <f>IF(Antworten!C39=1, "P", IF(Antworten!C39=2, "I", IF(Antworten!C39=3, "O", IF(Antworten!C39=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(Antworten!D39=1, "P", IF(Antworten!D39=2, "I", IF(Antworten!D39=3, "O", IF(Antworten!D39=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(Antworten!E39=1, "O", IF(Antworten!E39=2, "IP", IF(Antworten!E39=3, "IP", IF(Antworten!E39=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(Antworten!F39="Ja", "HP",IF(Antworten!F39="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(Antworten!G39="Ja", "HP",IF(Antworten!G39="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H39" t="str">
+        <f>IF(Antworten!H39="Ich dusche nicht länger als notwendig","P",IF(Antworten!H39="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H39="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(Antworten!I39=1, "P", IF(Antworten!I39=2, "IO", IF(Antworten!I39=3, "IO", IF(Antworten!I39=4, "H"))))</f>
+        <v>H</v>
+      </c>
+      <c r="J39" t="str">
+        <f>IF(Antworten!J39=1, "H", IF(Antworten!J39=2, "H", IF(Antworten!J39=3, "HO", IF(Antworten!J39=4, "IPO"))))</f>
+        <v>IPO</v>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(Antworten!K39=1, "HI", IF(Antworten!K39=2, "HI", IF(Antworten!K39=3, "HI", IF(Antworten!K39=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L39" t="str">
+        <f>IF(Antworten!L39=1, "HP", IF(Antworten!L39=2, "HP", IF(Antworten!L39=3, "HP", IF(Antworten!L39=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="93"/>
+        <v>PPIPHPHPIHPOHIPOHIHP</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="94"/>
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="95"/>
+        <v>6</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="96"/>
+        <v>8</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="98"/>
+        <v>20</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="99"/>
+        <v>0.2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="100"/>
+        <v>0.3</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="101"/>
+        <v>0.4</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="102"/>
+        <v>0.1</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="103"/>
+        <v>Professional</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <f>Antworten!A40</f>
+        <v>43312.647743055553</v>
+      </c>
+      <c r="B40" s="11" t="str">
+        <f>Antworten!B40</f>
+        <v>j.gerald@gmx.at</v>
+      </c>
+      <c r="C40" t="str">
+        <f>IF(Antworten!C40=1, "P", IF(Antworten!C40=2, "I", IF(Antworten!C40=3, "O", IF(Antworten!C40=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D40" t="str">
+        <f>IF(Antworten!D40=1, "P", IF(Antworten!D40=2, "I", IF(Antworten!D40=3, "O", IF(Antworten!D40=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(Antworten!E40=1, "O", IF(Antworten!E40=2, "IP", IF(Antworten!E40=3, "IP", IF(Antworten!E40=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F40" t="str">
+        <f>IF(Antworten!F40="Ja", "HP",IF(Antworten!F40="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(Antworten!G40="Ja", "HP",IF(Antworten!G40="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H40" t="str">
+        <f>IF(Antworten!H40="Ich dusche nicht länger als notwendig","P",IF(Antworten!H40="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H40="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I40" t="str">
+        <f>IF(Antworten!I40=1, "P", IF(Antworten!I40=2, "IO", IF(Antworten!I40=3, "IO", IF(Antworten!I40=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J40" t="str">
+        <f>IF(Antworten!J40=1, "H", IF(Antworten!J40=2, "H", IF(Antworten!J40=3, "HO", IF(Antworten!J40=4, "IPO"))))</f>
+        <v>H</v>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(Antworten!K40=1, "HI", IF(Antworten!K40=2, "HI", IF(Antworten!K40=3, "HI", IF(Antworten!K40=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L40" t="str">
+        <f>IF(Antworten!L40=1, "HP", IF(Antworten!L40=2, "HP", IF(Antworten!L40=3, "HP", IF(Antworten!L40=4, "IHPO"))))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="93"/>
+        <v>PIIPHPHPIHPOIOHHIIHPO</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="94"/>
+        <v>6</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="95"/>
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="96"/>
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="97"/>
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="98"/>
+        <v>21</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="99"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="100"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="101"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="102"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="103"/>
+        <v>Indifferent</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:V32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="S2:V40">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5306,10 +6524,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6340,7 +7558,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <f>Antworten!A13</f>
         <v>43308.540231481478</v>
@@ -6426,7 +7644,7 @@
         <v>0.38461538461538464</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <f>Antworten!A14</f>
         <v>43308.548194444447</v>
@@ -6512,7 +7730,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <f>Antworten!A15</f>
         <v>43308.550613425927</v>
@@ -6598,7 +7816,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <f>Antworten!A16</f>
         <v>43308.556134259263</v>
@@ -6684,7 +7902,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>Antworten!A17</f>
         <v>43308.569039351853</v>
@@ -6770,7 +7988,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <f>Antworten!A18</f>
         <v>43308.606747685182</v>
@@ -6856,7 +8074,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <f>Antworten!A19</f>
         <v>43308.607199074075</v>
@@ -6942,7 +8160,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <f>Antworten!A20</f>
         <v>43308.651608796295</v>
@@ -7028,7 +8246,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <f>Antworten!A21</f>
         <v>43308.653287037036</v>
@@ -7114,7 +8332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <f>Antworten!A22</f>
         <v>43308.724189814813</v>
@@ -7200,7 +8418,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <f>Antworten!A23</f>
         <v>43308.862199074072</v>
@@ -7286,7 +8504,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <f>Antworten!A24</f>
         <v>43308.961828703701</v>
@@ -7372,7 +8590,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <f>Antworten!A25</f>
         <v>43309.453576388885</v>
@@ -7458,7 +8676,7 @@
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <f>Antworten!A26</f>
         <v>43309.78837962963</v>
@@ -7544,7 +8762,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <f>Antworten!A27</f>
         <v>43310.899606481478</v>
@@ -7630,7 +8848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <f>Antworten!A28</f>
         <v>43311.39135416667</v>
@@ -7716,7 +8934,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <f>Antworten!A29</f>
         <v>43311.408310185187</v>
@@ -7802,7 +9020,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <f>Antworten!A30</f>
         <v>43311.520821759259</v>
@@ -7888,7 +9106,7 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <f>Antworten!A31</f>
         <v>43311.557800925926</v>
@@ -7974,7 +9192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <f>Antworten!A32</f>
         <v>43311.601990740739</v>
@@ -8060,13 +9278,702 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <f>Antworten!A33</f>
+        <v>43311.651446759257</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f>Antworten!B33</f>
+        <v>sigvard.lingner@siemens.com</v>
+      </c>
+      <c r="C33" t="str">
+        <f>IF(Antworten!C33=1, "P", IF(Antworten!C33=2, "I", IF(Antworten!C33=3, "O", IF(Antworten!C33=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D33" t="str">
+        <f>IF(Antworten!D33=1, "P", IF(Antworten!D33=2, "I", IF(Antworten!D33=3, "O", IF(Antworten!D33=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(Antworten!E33=1, "O", IF(Antworten!E33=2, "IP", IF(Antworten!E33=3, "IP", IF(Antworten!E33=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(Antworten!F33="Ja", "HP",IF(Antworten!F33="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(Antworten!G33="Ja", "HP",IF(Antworten!G33="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H33" t="str">
+        <f>IF(Antworten!H33="Ich dusche nicht länger als notwendig","P",IF(Antworten!H33="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H33="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I33" t="str">
+        <f>IF(Antworten!I33=1, "P", IF(Antworten!I33=2, "IO", IF(Antworten!I33=3, "IO", IF(Antworten!I33=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33:J35" si="94">CONCATENATE(C33,D33,E33,F33,G33,H33,I33)</f>
+        <v>OIIPHPIOPIO</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K35" si="95">LEN(J33)-LEN(SUBSTITUTE(J33,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L35" si="96">LEN(J33)-LEN(SUBSTITUTE(J33,"H",""))</f>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M35" si="97">LEN(J33)-LEN(SUBSTITUTE(J33,"P",""))</f>
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N35" si="98">LEN(J33)-LEN(SUBSTITUTE(J33,"O",""))</f>
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <f t="shared" ref="O33:O35" si="99">SUM(K33:N33)</f>
+        <v>11</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" ref="P33:P35" si="100">K33/O33</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" ref="Q33:Q35" si="101">L33/O33</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" ref="R33:R35" si="102">M33/O33</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="S33" s="9">
+        <f t="shared" ref="S33:S35" si="103">N33/O33</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" ref="T33:T35" si="104">INDEX($P$1:$S$1, MATCH(U33,P33:S33,0))</f>
+        <v>Indifferent</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" ref="U33:U35" si="105">MAX(P33:S33)</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <f>Antworten!A34</f>
+        <v>43311.659178240741</v>
+      </c>
+      <c r="B34" s="11" t="str">
+        <f>Antworten!B34</f>
+        <v>herwig.schreiner@siemens.com</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(Antworten!C34=1, "P", IF(Antworten!C34=2, "I", IF(Antworten!C34=3, "O", IF(Antworten!C34=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D34" t="str">
+        <f>IF(Antworten!D34=1, "P", IF(Antworten!D34=2, "I", IF(Antworten!D34=3, "O", IF(Antworten!D34=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(Antworten!E34=1, "O", IF(Antworten!E34=2, "IP", IF(Antworten!E34=3, "IP", IF(Antworten!E34=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(Antworten!F34="Ja", "HP",IF(Antworten!F34="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(Antworten!G34="Ja", "HP",IF(Antworten!G34="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H34" t="str">
+        <f>IF(Antworten!H34="Ich dusche nicht länger als notwendig","P",IF(Antworten!H34="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H34="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I34" t="str">
+        <f>IF(Antworten!I34=1, "P", IF(Antworten!I34=2, "IO", IF(Antworten!I34=3, "IO", IF(Antworten!I34=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="94"/>
+        <v>OOIPHPHPIHPOP</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="95"/>
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="96"/>
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="97"/>
+        <v>5</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="98"/>
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="99"/>
+        <v>13</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="100"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="101"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="102"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="103"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="104"/>
+        <v>Professional</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="105"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <f>Antworten!A35</f>
+        <v>43312.330925925926</v>
+      </c>
+      <c r="B35" s="11" t="str">
+        <f>Antworten!B35</f>
+        <v>brigitte.maier@siemens.com</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(Antworten!C35=1, "P", IF(Antworten!C35=2, "I", IF(Antworten!C35=3, "O", IF(Antworten!C35=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(Antworten!D35=1, "P", IF(Antworten!D35=2, "I", IF(Antworten!D35=3, "O", IF(Antworten!D35=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(Antworten!E35=1, "O", IF(Antworten!E35=2, "IP", IF(Antworten!E35=3, "IP", IF(Antworten!E35=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(Antworten!F35="Ja", "HP",IF(Antworten!F35="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(Antworten!G35="Ja", "HP",IF(Antworten!G35="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(Antworten!H35="Ich dusche nicht länger als notwendig","P",IF(Antworten!H35="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H35="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(Antworten!I35=1, "P", IF(Antworten!I35=2, "IO", IF(Antworten!I35=3, "IO", IF(Antworten!I35=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="94"/>
+        <v>OIIPHPHPIHPOP</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="95"/>
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="96"/>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="97"/>
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="98"/>
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="99"/>
+        <v>13</v>
+      </c>
+      <c r="P35" s="9">
+        <f t="shared" si="100"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="101"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="102"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="S35" s="9">
+        <f t="shared" si="103"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="104"/>
+        <v>Professional</v>
+      </c>
+      <c r="U35" s="15">
+        <f t="shared" si="105"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <f>Antworten!A36</f>
+        <v>43312.417291666665</v>
+      </c>
+      <c r="B36" s="11" t="str">
+        <f>Antworten!B36</f>
+        <v>gerfried.krames@siemens.com</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(Antworten!C36=1, "P", IF(Antworten!C36=2, "I", IF(Antworten!C36=3, "O", IF(Antworten!C36=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D36" t="str">
+        <f>IF(Antworten!D36=1, "P", IF(Antworten!D36=2, "I", IF(Antworten!D36=3, "O", IF(Antworten!D36=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(Antworten!E36=1, "O", IF(Antworten!E36=2, "IP", IF(Antworten!E36=3, "IP", IF(Antworten!E36=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(Antworten!F36="Ja", "HP",IF(Antworten!F36="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(Antworten!G36="Ja", "HP",IF(Antworten!G36="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H36" t="str">
+        <f>IF(Antworten!H36="Ich dusche nicht länger als notwendig","P",IF(Antworten!H36="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H36="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I36" t="str">
+        <f>IF(Antworten!I36=1, "P", IF(Antworten!I36=2, "IO", IF(Antworten!I36=3, "IO", IF(Antworten!I36=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36" si="106">CONCATENATE(C36,D36,E36,F36,G36,H36,I36)</f>
+        <v>IPIPHPHPIHPOIO</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36" si="107">LEN(J36)-LEN(SUBSTITUTE(J36,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <f t="shared" ref="L36" si="108">LEN(J36)-LEN(SUBSTITUTE(J36,"H",""))</f>
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="109">LEN(J36)-LEN(SUBSTITUTE(J36,"P",""))</f>
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36" si="110">LEN(J36)-LEN(SUBSTITUTE(J36,"O",""))</f>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36" si="111">SUM(K36:N36)</f>
+        <v>14</v>
+      </c>
+      <c r="P36" s="9">
+        <f t="shared" ref="P36" si="112">K36/O36</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" ref="Q36" si="113">L36/O36</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" ref="R36" si="114">M36/O36</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" ref="S36" si="115">N36/O36</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" ref="T36" si="116">INDEX($P$1:$S$1, MATCH(U36,P36:S36,0))</f>
+        <v>Professional</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" ref="U36" si="117">MAX(P36:S36)</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <f>Antworten!A37</f>
+        <v>43312.453483796293</v>
+      </c>
+      <c r="B37" s="11" t="str">
+        <f>Antworten!B37</f>
+        <v>jonas.pettersson@siemens.com</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(Antworten!C37=1, "P", IF(Antworten!C37=2, "I", IF(Antworten!C37=3, "O", IF(Antworten!C37=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D37" t="str">
+        <f>IF(Antworten!D37=1, "P", IF(Antworten!D37=2, "I", IF(Antworten!D37=3, "O", IF(Antworten!D37=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(Antworten!E37=1, "O", IF(Antworten!E37=2, "IP", IF(Antworten!E37=3, "IP", IF(Antworten!E37=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(Antworten!F37="Ja", "HP",IF(Antworten!F37="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(Antworten!G37="Ja", "HP",IF(Antworten!G37="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H37" t="str">
+        <f>IF(Antworten!H37="Ich dusche nicht länger als notwendig","P",IF(Antworten!H37="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H37="Alles, je nach Situation","IHPO")))</f>
+        <v>P</v>
+      </c>
+      <c r="I37" t="str">
+        <f>IF(Antworten!I37=1, "P", IF(Antworten!I37=2, "IO", IF(Antworten!I37=3, "IO", IF(Antworten!I37=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" ref="J37" si="118">CONCATENATE(C37,D37,E37,F37,G37,H37,I37)</f>
+        <v>OIIPHPHPPP</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37" si="119">LEN(J37)-LEN(SUBSTITUTE(J37,"I",""))</f>
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37" si="120">LEN(J37)-LEN(SUBSTITUTE(J37,"H",""))</f>
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37" si="121">LEN(J37)-LEN(SUBSTITUTE(J37,"P",""))</f>
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37" si="122">LEN(J37)-LEN(SUBSTITUTE(J37,"O",""))</f>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <f t="shared" ref="O37" si="123">SUM(K37:N37)</f>
+        <v>10</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" ref="P37" si="124">K37/O37</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" ref="Q37" si="125">L37/O37</f>
+        <v>0.2</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" ref="R37" si="126">M37/O37</f>
+        <v>0.5</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" ref="S37" si="127">N37/O37</f>
+        <v>0.1</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" ref="T37" si="128">INDEX($P$1:$S$1, MATCH(U37,P37:S37,0))</f>
+        <v>Professional</v>
+      </c>
+      <c r="U37" s="15">
+        <f t="shared" ref="U37" si="129">MAX(P37:S37)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <f>Antworten!A38</f>
+        <v>43312.562743055554</v>
+      </c>
+      <c r="B38" s="11" t="str">
+        <f>Antworten!B38</f>
+        <v>florian.sestak@siemens.com</v>
+      </c>
+      <c r="C38" t="str">
+        <f>IF(Antworten!C38=1, "P", IF(Antworten!C38=2, "I", IF(Antworten!C38=3, "O", IF(Antworten!C38=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="D38" t="str">
+        <f>IF(Antworten!D38=1, "P", IF(Antworten!D38=2, "I", IF(Antworten!D38=3, "O", IF(Antworten!D38=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(Antworten!E38=1, "O", IF(Antworten!E38=2, "IP", IF(Antworten!E38=3, "IP", IF(Antworten!E38=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(Antworten!F38="Ja", "HP",IF(Antworten!F38="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G38" t="str">
+        <f>IF(Antworten!G38="Ja", "HP",IF(Antworten!G38="Nein","IO"))</f>
+        <v>IO</v>
+      </c>
+      <c r="H38" t="str">
+        <f>IF(Antworten!H38="Ich dusche nicht länger als notwendig","P",IF(Antworten!H38="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H38="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I38" t="str">
+        <f>IF(Antworten!I38=1, "P", IF(Antworten!I38=2, "IO", IF(Antworten!I38=3, "IO", IF(Antworten!I38=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" ref="J38:J40" si="130">CONCATENATE(C38,D38,E38,F38,G38,H38,I38)</f>
+        <v>OIIPHPIOIHPOP</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:K40" si="131">LEN(J38)-LEN(SUBSTITUTE(J38,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:L40" si="132">LEN(J38)-LEN(SUBSTITUTE(J38,"H",""))</f>
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38:M40" si="133">LEN(J38)-LEN(SUBSTITUTE(J38,"P",""))</f>
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N40" si="134">LEN(J38)-LEN(SUBSTITUTE(J38,"O",""))</f>
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O40" si="135">SUM(K38:N38)</f>
+        <v>13</v>
+      </c>
+      <c r="P38" s="9">
+        <f t="shared" ref="P38:P40" si="136">K38/O38</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" ref="Q38:Q40" si="137">L38/O38</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" ref="R38:R40" si="138">M38/O38</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" ref="S38:S40" si="139">N38/O38</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" ref="T38:T40" si="140">INDEX($P$1:$S$1, MATCH(U38,P38:S38,0))</f>
+        <v>Indifferent</v>
+      </c>
+      <c r="U38" s="15">
+        <f t="shared" ref="U38:U40" si="141">MAX(P38:S38)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <f>Antworten!A39</f>
+        <v>43312.63140046296</v>
+      </c>
+      <c r="B39" s="11" t="str">
+        <f>Antworten!B39</f>
+        <v>Stefan.jakob@gmx.at</v>
+      </c>
+      <c r="C39" t="str">
+        <f>IF(Antworten!C39=1, "P", IF(Antworten!C39=2, "I", IF(Antworten!C39=3, "O", IF(Antworten!C39=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D39" t="str">
+        <f>IF(Antworten!D39=1, "P", IF(Antworten!D39=2, "I", IF(Antworten!D39=3, "O", IF(Antworten!D39=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(Antworten!E39=1, "O", IF(Antworten!E39=2, "IP", IF(Antworten!E39=3, "IP", IF(Antworten!E39=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(Antworten!F39="Ja", "HP",IF(Antworten!F39="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G39" t="str">
+        <f>IF(Antworten!G39="Ja", "HP",IF(Antworten!G39="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H39" t="str">
+        <f>IF(Antworten!H39="Ich dusche nicht länger als notwendig","P",IF(Antworten!H39="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H39="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I39" t="str">
+        <f>IF(Antworten!I39=1, "P", IF(Antworten!I39=2, "IO", IF(Antworten!I39=3, "IO", IF(Antworten!I39=4, "H"))))</f>
+        <v>H</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="130"/>
+        <v>PPIPHPHPIHPOH</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="131"/>
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="132"/>
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="133"/>
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="135"/>
+        <v>13</v>
+      </c>
+      <c r="P39" s="9">
+        <f t="shared" si="136"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="137"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="138"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" si="139"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="140"/>
+        <v>Professional</v>
+      </c>
+      <c r="U39" s="15">
+        <f t="shared" si="141"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <f>Antworten!A40</f>
+        <v>43312.647743055553</v>
+      </c>
+      <c r="B40" s="11" t="str">
+        <f>Antworten!B40</f>
+        <v>j.gerald@gmx.at</v>
+      </c>
+      <c r="C40" t="str">
+        <f>IF(Antworten!C40=1, "P", IF(Antworten!C40=2, "I", IF(Antworten!C40=3, "O", IF(Antworten!C40=4, "H"))))</f>
+        <v>P</v>
+      </c>
+      <c r="D40" t="str">
+        <f>IF(Antworten!D40=1, "P", IF(Antworten!D40=2, "I", IF(Antworten!D40=3, "O", IF(Antworten!D40=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(Antworten!E40=1, "O", IF(Antworten!E40=2, "IP", IF(Antworten!E40=3, "IP", IF(Antworten!E40=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F40" t="str">
+        <f>IF(Antworten!F40="Ja", "HP",IF(Antworten!F40="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G40" t="str">
+        <f>IF(Antworten!G40="Ja", "HP",IF(Antworten!G40="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H40" t="str">
+        <f>IF(Antworten!H40="Ich dusche nicht länger als notwendig","P",IF(Antworten!H40="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H40="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I40" t="str">
+        <f>IF(Antworten!I40=1, "P", IF(Antworten!I40=2, "IO", IF(Antworten!I40=3, "IO", IF(Antworten!I40=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="130"/>
+        <v>PIIPHPHPIHPOIO</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="131"/>
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="132"/>
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="133"/>
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="135"/>
+        <v>14</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="136"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="137"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="138"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="139"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="140"/>
+        <v>Professional</v>
+      </c>
+      <c r="U40" s="15">
+        <f t="shared" si="141"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:S32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="P2:S40">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8212,7 +10119,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="14.1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -8281,7 +10188,7 @@
         <v>HOP</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8290,7 +10197,7 @@
         <v>OHPIPIHHPHPHPIHPOIHPOIHPOIOIPOHIIHO</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
@@ -8306,7 +10213,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
@@ -8329,7 +10236,7 @@
         <v>Hedonist</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
@@ -8345,7 +10252,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
@@ -8361,7 +10268,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E23" s="7">
         <f>SUM(E19:E22)</f>
         <v>35</v>
@@ -8377,7 +10284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>

--- a/survey/Auswertung.xlsx
+++ b/survey/Auswertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="20010" windowHeight="8055"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="20010" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Antworten" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="137">
   <si>
     <t>I</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>j.gerald@gmx.at</t>
+  </si>
+  <si>
+    <t>birgit.ohshita@siemens.com</t>
   </si>
 </sst>
 </file>
@@ -554,77 +557,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -965,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2737,6 +2670,50 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
+    <row r="41" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43313.555428240739</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="3">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
+        <v>3</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2745,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6511,9 +6488,103 @@
         <v>Indifferent</v>
       </c>
     </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <f>Antworten!A41</f>
+        <v>43313.555428240739</v>
+      </c>
+      <c r="B41" s="11" t="str">
+        <f>Antworten!B41</f>
+        <v>birgit.ohshita@siemens.com</v>
+      </c>
+      <c r="C41" t="str">
+        <f>IF(Antworten!C41=1, "P", IF(Antworten!C41=2, "I", IF(Antworten!C41=3, "O", IF(Antworten!C41=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(Antworten!D41=1, "P", IF(Antworten!D41=2, "I", IF(Antworten!D41=3, "O", IF(Antworten!D41=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(Antworten!E41=1, "O", IF(Antworten!E41=2, "IP", IF(Antworten!E41=3, "IP", IF(Antworten!E41=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F41" t="str">
+        <f>IF(Antworten!F41="Ja", "HP",IF(Antworten!F41="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(Antworten!G41="Ja", "HP",IF(Antworten!G41="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H41" t="str">
+        <f>IF(Antworten!H41="Ich dusche nicht länger als notwendig","P",IF(Antworten!H41="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H41="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I41" t="str">
+        <f>IF(Antworten!I41=1, "P", IF(Antworten!I41=2, "IO", IF(Antworten!I41=3, "IO", IF(Antworten!I41=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J41" t="str">
+        <f>IF(Antworten!J41=1, "H", IF(Antworten!J41=2, "H", IF(Antworten!J41=3, "HO", IF(Antworten!J41=4, "IPO"))))</f>
+        <v>HO</v>
+      </c>
+      <c r="K41" t="str">
+        <f>IF(Antworten!K41=1, "HI", IF(Antworten!K41=2, "HI", IF(Antworten!K41=3, "HI", IF(Antworten!K41=4, "IHPO"))))</f>
+        <v>HI</v>
+      </c>
+      <c r="L41" t="str">
+        <f>IF(Antworten!L41=1, "HP", IF(Antworten!L41=2, "HP", IF(Antworten!L41=3, "HP", IF(Antworten!L41=4, "IHPO"))))</f>
+        <v>HP</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ref="M41" si="104">CONCATENATE(C41,D41,E41,F41,G41,H41,I41,J41,K41,L41)</f>
+        <v>IOIPHPHPIHPOIOHOHIHP</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41" si="105">LEN(M41)-LEN(SUBSTITUTE(M41,"I",""))</f>
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41" si="106">LEN(M41)-LEN(SUBSTITUTE(M41,"H",""))</f>
+        <v>6</v>
+      </c>
+      <c r="P41">
+        <f t="shared" ref="P41" si="107">LEN(M41)-LEN(SUBSTITUTE(M41,"P",""))</f>
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41" si="108">LEN(M41)-LEN(SUBSTITUTE(M41,"O",""))</f>
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <f t="shared" ref="R41" si="109">SUM(N41:Q41)</f>
+        <v>20</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ref="S41" si="110">N41/R41</f>
+        <v>0.25</v>
+      </c>
+      <c r="T41">
+        <f t="shared" ref="T41" si="111">O41/R41</f>
+        <v>0.3</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ref="U41" si="112">P41/R41</f>
+        <v>0.25</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ref="V41" si="113">Q41/R41</f>
+        <v>0.2</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" ref="W41" si="114">INDEX($S$1:$V$1, MATCH(MAX(S41:V41),S41:V41,0))</f>
+        <v>Hedonist</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="S2:V40">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="S2:V41">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6524,10 +6595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9966,9 +10037,95 @@
         <v>0.35714285714285715</v>
       </c>
     </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <f>Antworten!A41</f>
+        <v>43313.555428240739</v>
+      </c>
+      <c r="B41" s="11" t="str">
+        <f>Antworten!B41</f>
+        <v>birgit.ohshita@siemens.com</v>
+      </c>
+      <c r="C41" t="str">
+        <f>IF(Antworten!C41=1, "P", IF(Antworten!C41=2, "I", IF(Antworten!C41=3, "O", IF(Antworten!C41=4, "H"))))</f>
+        <v>I</v>
+      </c>
+      <c r="D41" t="str">
+        <f>IF(Antworten!D41=1, "P", IF(Antworten!D41=2, "I", IF(Antworten!D41=3, "O", IF(Antworten!D41=4, "H"))))</f>
+        <v>O</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(Antworten!E41=1, "O", IF(Antworten!E41=2, "IP", IF(Antworten!E41=3, "IP", IF(Antworten!E41=4, "H"))))</f>
+        <v>IP</v>
+      </c>
+      <c r="F41" t="str">
+        <f>IF(Antworten!F41="Ja", "HP",IF(Antworten!F41="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(Antworten!G41="Ja", "HP",IF(Antworten!G41="Nein","IO"))</f>
+        <v>HP</v>
+      </c>
+      <c r="H41" t="str">
+        <f>IF(Antworten!H41="Ich dusche nicht länger als notwendig","P",IF(Antworten!H41="Ich dusche oder bade gerne lange, das ist für mich Erholung und Genuss","IHO",IF(Antworten!H41="Alles, je nach Situation","IHPO")))</f>
+        <v>IHPO</v>
+      </c>
+      <c r="I41" t="str">
+        <f>IF(Antworten!I41=1, "P", IF(Antworten!I41=2, "IO", IF(Antworten!I41=3, "IO", IF(Antworten!I41=4, "H"))))</f>
+        <v>IO</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" ref="J41" si="142">CONCATENATE(C41,D41,E41,F41,G41,H41,I41)</f>
+        <v>IOIPHPHPIHPOIO</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41" si="143">LEN(J41)-LEN(SUBSTITUTE(J41,"I",""))</f>
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <f t="shared" ref="L41" si="144">LEN(J41)-LEN(SUBSTITUTE(J41,"H",""))</f>
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41" si="145">LEN(J41)-LEN(SUBSTITUTE(J41,"P",""))</f>
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41" si="146">LEN(J41)-LEN(SUBSTITUTE(J41,"O",""))</f>
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" ref="O41" si="147">SUM(K41:N41)</f>
+        <v>14</v>
+      </c>
+      <c r="P41" s="9">
+        <f t="shared" ref="P41" si="148">K41/O41</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" ref="Q41" si="149">L41/O41</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" ref="R41" si="150">M41/O41</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="S41" s="9">
+        <f t="shared" ref="S41" si="151">N41/O41</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" ref="T41" si="152">INDEX($P$1:$S$1, MATCH(U41,P41:S41,0))</f>
+        <v>Indifferent</v>
+      </c>
+      <c r="U41" s="15">
+        <f t="shared" ref="U41" si="153">MAX(P41:S41)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="P2:S40">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="P2:S41">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
